--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="445">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -895,6 +895,21 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['13', '85']</t>
+  </si>
+  <si>
+    <t>['5', '59', '90+6']</t>
+  </si>
+  <si>
+    <t>['73', '90+4']</t>
+  </si>
+  <si>
+    <t>['9', '51', '75', '85']</t>
+  </si>
+  <si>
+    <t>['9', '29']</t>
+  </si>
+  <si>
     <t>['5', '77']</t>
   </si>
   <si>
@@ -1323,6 +1338,18 @@
   <si>
     <t>['52', '66']</t>
   </si>
+  <si>
+    <t>['14', '55']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['23', '33', '67']</t>
+  </si>
+  <si>
+    <t>['4', '42']</t>
+  </si>
 </sst>
 </file>
 
@@ -1683,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2020,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2432,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ4">
         <v>1.61</v>
@@ -2560,7 +2587,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2641,7 +2668,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ5">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2766,7 +2793,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2844,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ6">
         <v>0.9399999999999999</v>
@@ -3590,7 +3617,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q10">
         <v>2.4</v>
@@ -3671,7 +3698,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ10">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3877,7 +3904,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ11">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>1.77</v>
@@ -4083,7 +4110,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ12">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR12">
         <v>1.46</v>
@@ -4414,7 +4441,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q14">
         <v>2.75</v>
@@ -4492,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4698,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ15">
         <v>0.72</v>
@@ -4826,7 +4853,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q16">
         <v>3.25</v>
@@ -4904,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ16">
         <v>1.11</v>
@@ -5032,7 +5059,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q17">
         <v>2.87</v>
@@ -5110,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ17">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5238,7 +5265,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q18">
         <v>3.8</v>
@@ -5316,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ18">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5444,7 +5471,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q19">
         <v>3.48</v>
@@ -5525,7 +5552,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5728,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ20">
         <v>1.06</v>
@@ -5856,7 +5883,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5937,7 +5964,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
         <v>2.08</v>
@@ -6268,7 +6295,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -6349,7 +6376,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ23">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -6552,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ24">
         <v>0.9399999999999999</v>
@@ -6758,10 +6785,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR25">
         <v>1</v>
@@ -6967,7 +6994,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ26">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR26">
         <v>1.39</v>
@@ -7582,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ29">
         <v>0.9399999999999999</v>
@@ -7791,7 +7818,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ30">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7994,10 +8021,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ31">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR31">
         <v>1.86</v>
@@ -8122,7 +8149,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8200,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ32">
         <v>1.61</v>
@@ -8406,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ33">
         <v>1.72</v>
@@ -8821,7 +8848,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ35">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR35">
         <v>1.24</v>
@@ -9436,10 +9463,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ38">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
         <v>0.92</v>
@@ -9564,7 +9591,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9848,10 +9875,10 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ40">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR40">
         <v>1.71</v>
@@ -9976,7 +10003,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -10054,10 +10081,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ41">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR41">
         <v>1.66</v>
@@ -10182,7 +10209,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10260,7 +10287,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ42">
         <v>1.89</v>
@@ -10388,7 +10415,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -10466,10 +10493,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR43">
         <v>1.3</v>
@@ -10594,7 +10621,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q44">
         <v>2.75</v>
@@ -10672,10 +10699,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ44">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.04</v>
@@ -10800,7 +10827,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -10881,7 +10908,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ45">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR45">
         <v>1.42</v>
@@ -11087,7 +11114,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>1.75</v>
@@ -11293,7 +11320,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR47">
         <v>0.77</v>
@@ -11830,7 +11857,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q50">
         <v>2.35</v>
@@ -11908,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ50">
         <v>0.9399999999999999</v>
@@ -12114,10 +12141,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ51">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR51">
         <v>0.89</v>
@@ -12242,7 +12269,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12320,7 +12347,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -12448,7 +12475,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12654,7 +12681,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12732,7 +12759,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>1.61</v>
@@ -12941,7 +12968,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ55">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -13066,7 +13093,7 @@
         <v>102</v>
       </c>
       <c r="P56" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q56">
         <v>3.65</v>
@@ -13272,7 +13299,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13350,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="AP57">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ57">
         <v>1.06</v>
@@ -13478,7 +13505,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -13559,7 +13586,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ58">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13762,10 +13789,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -13968,10 +13995,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ60">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR60">
         <v>1.15</v>
@@ -14174,10 +14201,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ61">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>1.12</v>
@@ -14380,10 +14407,10 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ62">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR62">
         <v>1.24</v>
@@ -14586,10 +14613,10 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ63">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR63">
         <v>1.23</v>
@@ -14792,10 +14819,10 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ64">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR64">
         <v>1.33</v>
@@ -15126,7 +15153,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15207,7 +15234,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ66">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR66">
         <v>0.91</v>
@@ -15332,7 +15359,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15413,7 +15440,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ67">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR67">
         <v>1.48</v>
@@ -15538,7 +15565,7 @@
         <v>103</v>
       </c>
       <c r="P68" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15744,7 +15771,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15822,7 +15849,7 @@
         <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ69">
         <v>0.9399999999999999</v>
@@ -16646,7 +16673,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>1.72</v>
@@ -16774,7 +16801,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16980,7 +17007,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -17058,10 +17085,10 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR75">
         <v>1.9</v>
@@ -17598,7 +17625,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q78">
         <v>2.95</v>
@@ -17679,7 +17706,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ78">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR78">
         <v>1.42</v>
@@ -17882,7 +17909,7 @@
         <v>1.25</v>
       </c>
       <c r="AP79">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ79">
         <v>0.72</v>
@@ -18088,7 +18115,7 @@
         <v>2</v>
       </c>
       <c r="AP80">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ80">
         <v>1.61</v>
@@ -18216,7 +18243,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -18297,7 +18324,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR81">
         <v>1.43</v>
@@ -18500,10 +18527,10 @@
         <v>1.25</v>
       </c>
       <c r="AP82">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ82">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR82">
         <v>1.37</v>
@@ -18628,7 +18655,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18709,7 +18736,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ83">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.32</v>
@@ -18834,7 +18861,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -18912,7 +18939,7 @@
         <v>2.33</v>
       </c>
       <c r="AP84">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ84">
         <v>1.89</v>
@@ -19118,10 +19145,10 @@
         <v>1.75</v>
       </c>
       <c r="AP85">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ85">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR85">
         <v>1.32</v>
@@ -19452,7 +19479,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q87">
         <v>2.63</v>
@@ -19530,10 +19557,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19658,7 +19685,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19736,7 +19763,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ88">
         <v>1.11</v>
@@ -19864,7 +19891,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -19942,7 +19969,7 @@
         <v>0.4</v>
       </c>
       <c r="AP89">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ89">
         <v>0.9399999999999999</v>
@@ -20151,7 +20178,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ90">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR90">
         <v>1.02</v>
@@ -20357,7 +20384,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ91">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -20560,7 +20587,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ92">
         <v>1.06</v>
@@ -20769,7 +20796,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ93">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.54</v>
@@ -20972,10 +20999,10 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ94">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -21100,7 +21127,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q95">
         <v>2.63</v>
@@ -21306,7 +21333,7 @@
         <v>90</v>
       </c>
       <c r="P96" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q96">
         <v>3.3</v>
@@ -21387,7 +21414,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ96">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
         <v>1.14</v>
@@ -21512,7 +21539,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q97">
         <v>2.35</v>
@@ -21718,7 +21745,7 @@
         <v>125</v>
       </c>
       <c r="P98" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -22002,10 +22029,10 @@
         <v>1.4</v>
       </c>
       <c r="AP99">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ99">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR99">
         <v>1.45</v>
@@ -22208,10 +22235,10 @@
         <v>1.2</v>
       </c>
       <c r="AP100">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ100">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR100">
         <v>1.04</v>
@@ -22414,7 +22441,7 @@
         <v>2.2</v>
       </c>
       <c r="AP101">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ101">
         <v>1.61</v>
@@ -22542,7 +22569,7 @@
         <v>90</v>
       </c>
       <c r="P102" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q102">
         <v>3.3</v>
@@ -22620,7 +22647,7 @@
         <v>1</v>
       </c>
       <c r="AP102">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22748,7 +22775,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22826,10 +22853,10 @@
         <v>2.25</v>
       </c>
       <c r="AP103">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR103">
         <v>1.4</v>
@@ -22954,7 +22981,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q104">
         <v>1.95</v>
@@ -23241,7 +23268,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ105">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>1.45</v>
@@ -23366,7 +23393,7 @@
         <v>155</v>
       </c>
       <c r="P106" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q106">
         <v>3.5</v>
@@ -23653,7 +23680,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ107">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.39</v>
@@ -23778,7 +23805,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q108">
         <v>2.91</v>
@@ -23859,7 +23886,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ108">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR108">
         <v>1.3</v>
@@ -23984,7 +24011,7 @@
         <v>90</v>
       </c>
       <c r="P109" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q109">
         <v>3.4</v>
@@ -24065,7 +24092,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ109">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR109">
         <v>1.13</v>
@@ -24602,7 +24629,7 @@
         <v>158</v>
       </c>
       <c r="P112" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q112">
         <v>2.6</v>
@@ -24680,10 +24707,10 @@
         <v>1.8</v>
       </c>
       <c r="AP112">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ112">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
         <v>1.33</v>
@@ -24886,7 +24913,7 @@
         <v>0.83</v>
       </c>
       <c r="AP113">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113">
         <v>0.9399999999999999</v>
@@ -25095,7 +25122,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ114">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR114">
         <v>1.54</v>
@@ -25298,7 +25325,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ115">
         <v>0.67</v>
@@ -25710,7 +25737,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ117">
         <v>0.9399999999999999</v>
@@ -25919,7 +25946,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR118">
         <v>2.02</v>
@@ -26122,7 +26149,7 @@
         <v>0.83</v>
       </c>
       <c r="AP119">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ119">
         <v>0.9399999999999999</v>
@@ -26250,7 +26277,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26456,7 +26483,7 @@
         <v>90</v>
       </c>
       <c r="P121" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q121">
         <v>3.5</v>
@@ -26534,7 +26561,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ121">
         <v>1.72</v>
@@ -26868,7 +26895,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q123">
         <v>3.9</v>
@@ -26946,7 +26973,7 @@
         <v>1.5</v>
       </c>
       <c r="AP123">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ123">
         <v>0.72</v>
@@ -27074,7 +27101,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q124">
         <v>3.3</v>
@@ -27152,10 +27179,10 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR124">
         <v>1.05</v>
@@ -27280,7 +27307,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q125">
         <v>2.7</v>
@@ -27361,7 +27388,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ125">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27486,7 +27513,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q126">
         <v>3.9</v>
@@ -27692,7 +27719,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27770,10 +27797,10 @@
         <v>2.4</v>
       </c>
       <c r="AP127">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -27898,7 +27925,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q128">
         <v>2.35</v>
@@ -27979,7 +28006,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR128">
         <v>1.87</v>
@@ -28104,7 +28131,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28182,10 +28209,10 @@
         <v>0.2</v>
       </c>
       <c r="AP129">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ129">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.52</v>
@@ -28594,7 +28621,7 @@
         <v>0.71</v>
       </c>
       <c r="AP131">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ131">
         <v>1.06</v>
@@ -28722,7 +28749,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q132">
         <v>2.88</v>
@@ -28800,7 +28827,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ132">
         <v>0.9399999999999999</v>
@@ -28928,7 +28955,7 @@
         <v>90</v>
       </c>
       <c r="P133" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q133">
         <v>3.1</v>
@@ -29006,10 +29033,10 @@
         <v>1.83</v>
       </c>
       <c r="AP133">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ133">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -29215,7 +29242,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ134">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR134">
         <v>1.45</v>
@@ -29418,7 +29445,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ135">
         <v>0.67</v>
@@ -29833,7 +29860,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ137">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR137">
         <v>1.34</v>
@@ -30036,10 +30063,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ138">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR138">
         <v>1.32</v>
@@ -30164,7 +30191,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -30245,7 +30272,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ139">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR139">
         <v>1.14</v>
@@ -30448,7 +30475,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ140">
         <v>0.67</v>
@@ -30654,10 +30681,10 @@
         <v>1.33</v>
       </c>
       <c r="AP141">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ141">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR141">
         <v>1.05</v>
@@ -30782,7 +30809,7 @@
         <v>125</v>
       </c>
       <c r="P142" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q142">
         <v>2.45</v>
@@ -31606,7 +31633,7 @@
         <v>90</v>
       </c>
       <c r="P146" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31684,10 +31711,10 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ146">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR146">
         <v>1.18</v>
@@ -31812,7 +31839,7 @@
         <v>180</v>
       </c>
       <c r="P147" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q147">
         <v>2.7</v>
@@ -31893,7 +31920,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ147">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR147">
         <v>1.52</v>
@@ -32096,10 +32123,10 @@
         <v>2</v>
       </c>
       <c r="AP148">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ148">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR148">
         <v>1.63</v>
@@ -32224,7 +32251,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q149">
         <v>3.65</v>
@@ -32302,7 +32329,7 @@
         <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ149">
         <v>1.72</v>
@@ -32430,7 +32457,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q150">
         <v>3.4</v>
@@ -32511,7 +32538,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ150">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR150">
         <v>1.07</v>
@@ -32714,7 +32741,7 @@
         <v>1.43</v>
       </c>
       <c r="AP151">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ151">
         <v>0.72</v>
@@ -32923,7 +32950,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR152">
         <v>1.39</v>
@@ -33254,7 +33281,7 @@
         <v>185</v>
       </c>
       <c r="P154" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33332,7 +33359,7 @@
         <v>0.75</v>
       </c>
       <c r="AP154">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ154">
         <v>0.9399999999999999</v>
@@ -33460,7 +33487,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q155">
         <v>2.68</v>
@@ -33538,7 +33565,7 @@
         <v>1.14</v>
       </c>
       <c r="AP155">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
         <v>1.11</v>
@@ -33744,10 +33771,10 @@
         <v>2</v>
       </c>
       <c r="AP156">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ156">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -34156,10 +34183,10 @@
         <v>1.57</v>
       </c>
       <c r="AP158">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ158">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR158">
         <v>1.3</v>
@@ -34362,10 +34389,10 @@
         <v>1.29</v>
       </c>
       <c r="AP159">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ159">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR159">
         <v>1.31</v>
@@ -34568,10 +34595,10 @@
         <v>1.86</v>
       </c>
       <c r="AP160">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ160">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR160">
         <v>1.39</v>
@@ -34696,7 +34723,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q161">
         <v>2.86</v>
@@ -34777,7 +34804,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ161">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR161">
         <v>1.52</v>
@@ -34980,7 +35007,7 @@
         <v>1.25</v>
       </c>
       <c r="AP162">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ162">
         <v>0.72</v>
@@ -35186,7 +35213,7 @@
         <v>2.43</v>
       </c>
       <c r="AP163">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ163">
         <v>1.89</v>
@@ -35395,7 +35422,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ164">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR164">
         <v>1.38</v>
@@ -35520,7 +35547,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q165">
         <v>2.3</v>
@@ -35726,7 +35753,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q166">
         <v>3.35</v>
@@ -35804,10 +35831,10 @@
         <v>1.13</v>
       </c>
       <c r="AP166">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ166">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR166">
         <v>1.25</v>
@@ -36216,7 +36243,7 @@
         <v>1.75</v>
       </c>
       <c r="AP168">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ168">
         <v>1.61</v>
@@ -36425,7 +36452,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ169">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR169">
         <v>1.56</v>
@@ -36550,7 +36577,7 @@
         <v>197</v>
       </c>
       <c r="P170" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36631,7 +36658,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR170">
         <v>1.74</v>
@@ -36756,7 +36783,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -36834,10 +36861,10 @@
         <v>0.71</v>
       </c>
       <c r="AP171">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ171">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR171">
         <v>1.52</v>
@@ -36962,7 +36989,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -37168,7 +37195,7 @@
         <v>200</v>
       </c>
       <c r="P173" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q173">
         <v>2.87</v>
@@ -37246,10 +37273,10 @@
         <v>1.88</v>
       </c>
       <c r="AP173">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ173">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR173">
         <v>1.34</v>
@@ -37658,10 +37685,10 @@
         <v>1.63</v>
       </c>
       <c r="AP175">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ175">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR175">
         <v>1.78</v>
@@ -37786,7 +37813,7 @@
         <v>203</v>
       </c>
       <c r="P176" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q176">
         <v>2.2</v>
@@ -37867,7 +37894,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ176">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR176">
         <v>1.63</v>
@@ -37992,7 +38019,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q177">
         <v>2.7</v>
@@ -38070,10 +38097,10 @@
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ177">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR177">
         <v>1.28</v>
@@ -38276,10 +38303,10 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ178">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR178">
         <v>1.4</v>
@@ -38610,7 +38637,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q180">
         <v>2.15</v>
@@ -38816,7 +38843,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -38894,7 +38921,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ181">
         <v>1.5</v>
@@ -39100,7 +39127,7 @@
         <v>1.56</v>
       </c>
       <c r="AP182">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ182">
         <v>1.61</v>
@@ -39306,10 +39333,10 @@
         <v>1.44</v>
       </c>
       <c r="AP183">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ183">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR183">
         <v>1.49</v>
@@ -39512,7 +39539,7 @@
         <v>1.22</v>
       </c>
       <c r="AP184">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ184">
         <v>1.11</v>
@@ -39718,10 +39745,10 @@
         <v>1.5</v>
       </c>
       <c r="AP185">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ185">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR185">
         <v>1.38</v>
@@ -39846,7 +39873,7 @@
         <v>210</v>
       </c>
       <c r="P186" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q186">
         <v>3.4</v>
@@ -40052,7 +40079,7 @@
         <v>90</v>
       </c>
       <c r="P187" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q187">
         <v>3.4</v>
@@ -40133,7 +40160,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ187">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR187">
         <v>1.12</v>
@@ -40258,7 +40285,7 @@
         <v>211</v>
       </c>
       <c r="P188" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q188">
         <v>4.4</v>
@@ -40336,10 +40363,10 @@
         <v>1.75</v>
       </c>
       <c r="AP188">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ188">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR188">
         <v>1.18</v>
@@ -40545,7 +40572,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ189">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR189">
         <v>1.24</v>
@@ -40670,7 +40697,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q190">
         <v>3.1</v>
@@ -41082,7 +41109,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41160,7 +41187,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ192">
         <v>0.67</v>
@@ -41288,7 +41315,7 @@
         <v>214</v>
       </c>
       <c r="P193" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q193">
         <v>2.88</v>
@@ -41366,10 +41393,10 @@
         <v>0.89</v>
       </c>
       <c r="AP193">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ193">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR193">
         <v>1.44</v>
@@ -41494,7 +41521,7 @@
         <v>126</v>
       </c>
       <c r="P194" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q194">
         <v>2.88</v>
@@ -41575,7 +41602,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ194">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR194">
         <v>1.33</v>
@@ -41781,7 +41808,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ195">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR195">
         <v>1.46</v>
@@ -41984,7 +42011,7 @@
         <v>0.9</v>
       </c>
       <c r="AP196">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ196">
         <v>0.9399999999999999</v>
@@ -42190,7 +42217,7 @@
         <v>0.8</v>
       </c>
       <c r="AP197">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ197">
         <v>1.06</v>
@@ -42318,7 +42345,7 @@
         <v>217</v>
       </c>
       <c r="P198" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q198">
         <v>2.75</v>
@@ -42602,10 +42629,10 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ199">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR199">
         <v>1.76</v>
@@ -42936,7 +42963,7 @@
         <v>218</v>
       </c>
       <c r="P201" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q201">
         <v>2.88</v>
@@ -43017,7 +43044,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ201">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR201">
         <v>1.42</v>
@@ -43142,7 +43169,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q202">
         <v>3.42</v>
@@ -43223,7 +43250,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ202">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR202">
         <v>1.56</v>
@@ -43348,7 +43375,7 @@
         <v>219</v>
       </c>
       <c r="P203" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q203">
         <v>3.3</v>
@@ -43429,7 +43456,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ203">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR203">
         <v>1.26</v>
@@ -43632,7 +43659,7 @@
         <v>1.89</v>
       </c>
       <c r="AP204">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ204">
         <v>1.89</v>
@@ -43760,7 +43787,7 @@
         <v>220</v>
       </c>
       <c r="P205" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q205">
         <v>3.55</v>
@@ -43838,7 +43865,7 @@
         <v>1.7</v>
       </c>
       <c r="AP205">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ205">
         <v>1.72</v>
@@ -44250,7 +44277,7 @@
         <v>1.4</v>
       </c>
       <c r="AP207">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ207">
         <v>1.61</v>
@@ -44378,7 +44405,7 @@
         <v>125</v>
       </c>
       <c r="P208" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q208">
         <v>3.3</v>
@@ -44456,10 +44483,10 @@
         <v>1.2</v>
       </c>
       <c r="AP208">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ208">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR208">
         <v>1.56</v>
@@ -44584,7 +44611,7 @@
         <v>223</v>
       </c>
       <c r="P209" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q209">
         <v>3.98</v>
@@ -44665,7 +44692,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ209">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR209">
         <v>1.43</v>
@@ -44790,7 +44817,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q210">
         <v>2.8</v>
@@ -44871,7 +44898,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ210">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR210">
         <v>1.71</v>
@@ -44996,7 +45023,7 @@
         <v>225</v>
       </c>
       <c r="P211" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -45074,7 +45101,7 @@
         <v>1.1</v>
       </c>
       <c r="AP211">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ211">
         <v>0.72</v>
@@ -45280,10 +45307,10 @@
         <v>1.6</v>
       </c>
       <c r="AP212">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ212">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR212">
         <v>1.34</v>
@@ -45489,7 +45516,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ213">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR213">
         <v>1.46</v>
@@ -45692,10 +45719,10 @@
         <v>0.9</v>
       </c>
       <c r="AP214">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ214">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR214">
         <v>1.11</v>
@@ -45898,10 +45925,10 @@
         <v>1.6</v>
       </c>
       <c r="AP215">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ215">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR215">
         <v>1.75</v>
@@ -46107,7 +46134,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ216">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR216">
         <v>1.32</v>
@@ -46232,7 +46259,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q217">
         <v>2.4</v>
@@ -46310,7 +46337,7 @@
         <v>0.64</v>
       </c>
       <c r="AP217">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ217">
         <v>0.9399999999999999</v>
@@ -46516,7 +46543,7 @@
         <v>1.2</v>
       </c>
       <c r="AP218">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ218">
         <v>1.5</v>
@@ -46722,7 +46749,7 @@
         <v>0.91</v>
       </c>
       <c r="AP219">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ219">
         <v>0.67</v>
@@ -46850,7 +46877,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -47056,7 +47083,7 @@
         <v>112</v>
       </c>
       <c r="P221" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q221">
         <v>2.75</v>
@@ -47137,7 +47164,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ221">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR221">
         <v>1.48</v>
@@ -47546,7 +47573,7 @@
         <v>0.73</v>
       </c>
       <c r="AP223">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ223">
         <v>1.06</v>
@@ -47755,7 +47782,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ224">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR224">
         <v>1.1</v>
@@ -47961,7 +47988,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ225">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR225">
         <v>1.44</v>
@@ -48164,7 +48191,7 @@
         <v>1.27</v>
       </c>
       <c r="AP226">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ226">
         <v>1.61</v>
@@ -48373,7 +48400,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ227">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR227">
         <v>1.68</v>
@@ -48498,7 +48525,7 @@
         <v>90</v>
       </c>
       <c r="P228" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q228">
         <v>3.3</v>
@@ -48704,7 +48731,7 @@
         <v>235</v>
       </c>
       <c r="P229" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q229">
         <v>2.88</v>
@@ -48785,7 +48812,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ229">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR229">
         <v>1.57</v>
@@ -48988,7 +49015,7 @@
         <v>2</v>
       </c>
       <c r="AP230">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ230">
         <v>1.89</v>
@@ -49116,7 +49143,7 @@
         <v>115</v>
       </c>
       <c r="P231" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49194,7 +49221,7 @@
         <v>1.09</v>
       </c>
       <c r="AP231">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ231">
         <v>1.11</v>
@@ -49400,10 +49427,10 @@
         <v>1.45</v>
       </c>
       <c r="AP232">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ232">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR232">
         <v>1.47</v>
@@ -49528,7 +49555,7 @@
         <v>90</v>
       </c>
       <c r="P233" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q233">
         <v>4.6</v>
@@ -49606,10 +49633,10 @@
         <v>1.36</v>
       </c>
       <c r="AP233">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ233">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR233">
         <v>1.11</v>
@@ -49734,7 +49761,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q234">
         <v>3.75</v>
@@ -49815,7 +49842,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ234">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR234">
         <v>1.42</v>
@@ -49940,7 +49967,7 @@
         <v>182</v>
       </c>
       <c r="P235" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q235">
         <v>2</v>
@@ -50018,7 +50045,7 @@
         <v>1.36</v>
       </c>
       <c r="AP235">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ235">
         <v>1.5</v>
@@ -50146,7 +50173,7 @@
         <v>92</v>
       </c>
       <c r="P236" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q236">
         <v>3.75</v>
@@ -50224,10 +50251,10 @@
         <v>1.55</v>
       </c>
       <c r="AP236">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ236">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR236">
         <v>1.23</v>
@@ -50433,7 +50460,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ237">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR237">
         <v>1.28</v>
@@ -50636,7 +50663,7 @@
         <v>0.83</v>
       </c>
       <c r="AP238">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ238">
         <v>0.67</v>
@@ -50764,7 +50791,7 @@
         <v>239</v>
       </c>
       <c r="P239" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q239">
         <v>2.76</v>
@@ -50842,7 +50869,7 @@
         <v>0.83</v>
       </c>
       <c r="AP239">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239">
         <v>0.9399999999999999</v>
@@ -51051,7 +51078,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ240">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR240">
         <v>1.41</v>
@@ -51460,7 +51487,7 @@
         <v>2.09</v>
       </c>
       <c r="AP242">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ242">
         <v>1.89</v>
@@ -51666,7 +51693,7 @@
         <v>0.75</v>
       </c>
       <c r="AP243">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ243">
         <v>1.06</v>
@@ -51794,7 +51821,7 @@
         <v>166</v>
       </c>
       <c r="P244" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q244">
         <v>3.1</v>
@@ -51872,10 +51899,10 @@
         <v>1.08</v>
       </c>
       <c r="AP244">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ244">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR244">
         <v>1.49</v>
@@ -52000,7 +52027,7 @@
         <v>243</v>
       </c>
       <c r="P245" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q245">
         <v>2.38</v>
@@ -52081,7 +52108,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ245">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR245">
         <v>1.67</v>
@@ -52206,7 +52233,7 @@
         <v>90</v>
       </c>
       <c r="P246" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q246">
         <v>2.75</v>
@@ -52284,10 +52311,10 @@
         <v>0.73</v>
       </c>
       <c r="AP246">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ246">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR246">
         <v>1.27</v>
@@ -52412,7 +52439,7 @@
         <v>244</v>
       </c>
       <c r="P247" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q247">
         <v>3</v>
@@ -52490,10 +52517,10 @@
         <v>1.18</v>
       </c>
       <c r="AP247">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ247">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR247">
         <v>1.47</v>
@@ -52824,7 +52851,7 @@
         <v>246</v>
       </c>
       <c r="P249" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q249">
         <v>2.75</v>
@@ -52902,7 +52929,7 @@
         <v>1.25</v>
       </c>
       <c r="AP249">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ249">
         <v>1.11</v>
@@ -53111,7 +53138,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ250">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR250">
         <v>1.53</v>
@@ -53236,7 +53263,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53317,7 +53344,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ251">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR251">
         <v>1.48</v>
@@ -53442,7 +53469,7 @@
         <v>249</v>
       </c>
       <c r="P252" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53523,7 +53550,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ252">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR252">
         <v>1.39</v>
@@ -53648,7 +53675,7 @@
         <v>250</v>
       </c>
       <c r="P253" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q253">
         <v>2.5</v>
@@ -53726,10 +53753,10 @@
         <v>1.67</v>
       </c>
       <c r="AP253">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ253">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR253">
         <v>1.74</v>
@@ -54060,7 +54087,7 @@
         <v>226</v>
       </c>
       <c r="P255" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q255">
         <v>2.75</v>
@@ -54344,7 +54371,7 @@
         <v>1</v>
       </c>
       <c r="AP256">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ256">
         <v>0.72</v>
@@ -54472,7 +54499,7 @@
         <v>90</v>
       </c>
       <c r="P257" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q257">
         <v>3.1</v>
@@ -54550,7 +54577,7 @@
         <v>0.77</v>
       </c>
       <c r="AP257">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ257">
         <v>0.9399999999999999</v>
@@ -54756,10 +54783,10 @@
         <v>2.08</v>
       </c>
       <c r="AP258">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ258">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR258">
         <v>1.46</v>
@@ -54884,7 +54911,7 @@
         <v>253</v>
       </c>
       <c r="P259" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -54965,7 +54992,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ259">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR259">
         <v>1.4</v>
@@ -55580,10 +55607,10 @@
         <v>1.31</v>
       </c>
       <c r="AP262">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ262">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR262">
         <v>1.41</v>
@@ -55786,7 +55813,7 @@
         <v>1.23</v>
       </c>
       <c r="AP263">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ263">
         <v>1.11</v>
@@ -55992,7 +56019,7 @@
         <v>0.92</v>
       </c>
       <c r="AP264">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ264">
         <v>0.72</v>
@@ -56120,7 +56147,7 @@
         <v>90</v>
       </c>
       <c r="P265" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q265">
         <v>4.73</v>
@@ -56198,7 +56225,7 @@
         <v>1.62</v>
       </c>
       <c r="AP265">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ265">
         <v>1.72</v>
@@ -56326,7 +56353,7 @@
         <v>256</v>
       </c>
       <c r="P266" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q266">
         <v>2.28</v>
@@ -56407,7 +56434,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ266">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR266">
         <v>1.68</v>
@@ -56532,7 +56559,7 @@
         <v>152</v>
       </c>
       <c r="P267" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q267">
         <v>3.89</v>
@@ -56738,7 +56765,7 @@
         <v>257</v>
       </c>
       <c r="P268" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q268">
         <v>2.23</v>
@@ -56819,7 +56846,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ268">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR268">
         <v>1.68</v>
@@ -56944,7 +56971,7 @@
         <v>258</v>
       </c>
       <c r="P269" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="Q269">
         <v>3.1</v>
@@ -57025,7 +57052,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ269">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR269">
         <v>1.39</v>
@@ -57150,7 +57177,7 @@
         <v>90</v>
       </c>
       <c r="P270" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="Q270">
         <v>2.5</v>
@@ -57228,7 +57255,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP270">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ270">
         <v>1.06</v>
@@ -57437,7 +57464,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ271">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR271">
         <v>1.47</v>
@@ -57640,7 +57667,7 @@
         <v>0.79</v>
       </c>
       <c r="AP272">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ272">
         <v>0.67</v>
@@ -57768,7 +57795,7 @@
         <v>133</v>
       </c>
       <c r="P273" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Q273">
         <v>4</v>
@@ -57849,7 +57876,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ273">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR273">
         <v>1.23</v>
@@ -57974,7 +58001,7 @@
         <v>260</v>
       </c>
       <c r="P274" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q274">
         <v>3.3</v>
@@ -58055,7 +58082,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ274">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR274">
         <v>1.14</v>
@@ -58180,7 +58207,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="Q275">
         <v>3.5</v>
@@ -58258,10 +58285,10 @@
         <v>1.38</v>
       </c>
       <c r="AP275">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ275">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR275">
         <v>1.35</v>
@@ -58386,7 +58413,7 @@
         <v>261</v>
       </c>
       <c r="P276" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q276">
         <v>2.88</v>
@@ -58464,10 +58491,10 @@
         <v>1.62</v>
       </c>
       <c r="AP276">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ276">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR276">
         <v>1.41</v>
@@ -58673,7 +58700,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ277">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR277">
         <v>1.44</v>
@@ -58798,7 +58825,7 @@
         <v>90</v>
       </c>
       <c r="P278" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="Q278">
         <v>3</v>
@@ -59082,7 +59109,7 @@
         <v>1.31</v>
       </c>
       <c r="AP279">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ279">
         <v>1.5</v>
@@ -59288,7 +59315,7 @@
         <v>1</v>
       </c>
       <c r="AP280">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ280">
         <v>0.9399999999999999</v>
@@ -59703,7 +59730,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ282">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR282">
         <v>1.68</v>
@@ -59828,7 +59855,7 @@
         <v>263</v>
       </c>
       <c r="P283" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q283">
         <v>2.98</v>
@@ -59906,7 +59933,7 @@
         <v>1.21</v>
       </c>
       <c r="AP283">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ283">
         <v>1.11</v>
@@ -60115,7 +60142,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ284">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR284">
         <v>1.43</v>
@@ -60240,7 +60267,7 @@
         <v>264</v>
       </c>
       <c r="P285" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q285">
         <v>2.6</v>
@@ -60524,7 +60551,7 @@
         <v>1.29</v>
       </c>
       <c r="AP286">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ286">
         <v>1.5</v>
@@ -60733,7 +60760,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ287">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR287">
         <v>1.35</v>
@@ -60936,7 +60963,7 @@
         <v>1.71</v>
       </c>
       <c r="AP288">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ288">
         <v>1.72</v>
@@ -61064,7 +61091,7 @@
         <v>90</v>
       </c>
       <c r="P289" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q289">
         <v>4</v>
@@ -61142,10 +61169,10 @@
         <v>1.5</v>
       </c>
       <c r="AP289">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ289">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR289">
         <v>1.5</v>
@@ -61270,7 +61297,7 @@
         <v>266</v>
       </c>
       <c r="P290" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q290">
         <v>2.45</v>
@@ -61682,7 +61709,7 @@
         <v>90</v>
       </c>
       <c r="P292" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q292">
         <v>2.88</v>
@@ -61763,7 +61790,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ292">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR292">
         <v>1.65</v>
@@ -61966,7 +61993,7 @@
         <v>2.14</v>
       </c>
       <c r="AP293">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ293">
         <v>1.89</v>
@@ -62172,10 +62199,10 @@
         <v>1.36</v>
       </c>
       <c r="AP294">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ294">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR294">
         <v>1.39</v>
@@ -62300,7 +62327,7 @@
         <v>270</v>
       </c>
       <c r="P295" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q295">
         <v>4.45</v>
@@ -62378,10 +62405,10 @@
         <v>2.07</v>
       </c>
       <c r="AP295">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ295">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR295">
         <v>1.34</v>
@@ -62587,7 +62614,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ296">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR296">
         <v>1.25</v>
@@ -62712,7 +62739,7 @@
         <v>126</v>
       </c>
       <c r="P297" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q297">
         <v>3.1</v>
@@ -62918,7 +62945,7 @@
         <v>90</v>
       </c>
       <c r="P298" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="Q298">
         <v>3.25</v>
@@ -62996,10 +63023,10 @@
         <v>1.5</v>
       </c>
       <c r="AP298">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ298">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR298">
         <v>1.36</v>
@@ -63124,7 +63151,7 @@
         <v>152</v>
       </c>
       <c r="P299" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="Q299">
         <v>3.33</v>
@@ -63205,7 +63232,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ299">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR299">
         <v>1.38</v>
@@ -63408,7 +63435,7 @@
         <v>1</v>
       </c>
       <c r="AP300">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ300">
         <v>0.9399999999999999</v>
@@ -63614,7 +63641,7 @@
         <v>0.73</v>
       </c>
       <c r="AP301">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ301">
         <v>0.67</v>
@@ -63948,7 +63975,7 @@
         <v>90</v>
       </c>
       <c r="P303" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q303">
         <v>2.3</v>
@@ -64232,7 +64259,7 @@
         <v>1.13</v>
       </c>
       <c r="AP304">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ304">
         <v>1.11</v>
@@ -64438,10 +64465,10 @@
         <v>1</v>
       </c>
       <c r="AP305">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ305">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR305">
         <v>1.51</v>
@@ -64566,7 +64593,7 @@
         <v>274</v>
       </c>
       <c r="P306" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="Q306">
         <v>3.1</v>
@@ -64647,7 +64674,7 @@
         <v>1.39</v>
       </c>
       <c r="AQ306">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR306">
         <v>1.35</v>
@@ -64850,7 +64877,7 @@
         <v>0.87</v>
       </c>
       <c r="AP307">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ307">
         <v>0.9399999999999999</v>
@@ -64978,7 +65005,7 @@
         <v>275</v>
       </c>
       <c r="P308" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q308">
         <v>2.2</v>
@@ -65184,7 +65211,7 @@
         <v>237</v>
       </c>
       <c r="P309" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Q309">
         <v>2.75</v>
@@ -65265,7 +65292,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ309">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR309">
         <v>1.41</v>
@@ -65390,7 +65417,7 @@
         <v>90</v>
       </c>
       <c r="P310" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="Q310">
         <v>2.1</v>
@@ -65468,7 +65495,7 @@
         <v>1</v>
       </c>
       <c r="AP310">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ310">
         <v>1.06</v>
@@ -65677,7 +65704,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ311">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR311">
         <v>1.49</v>
@@ -65802,7 +65829,7 @@
         <v>208</v>
       </c>
       <c r="P312" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -65880,7 +65907,7 @@
         <v>2</v>
       </c>
       <c r="AP312">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ312">
         <v>1.89</v>
@@ -66086,7 +66113,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP313">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ313">
         <v>0.67</v>
@@ -66214,7 +66241,7 @@
         <v>277</v>
       </c>
       <c r="P314" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="Q314">
         <v>3.26</v>
@@ -66292,10 +66319,10 @@
         <v>1.13</v>
       </c>
       <c r="AP314">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ314">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR314">
         <v>1.33</v>
@@ -66498,10 +66525,10 @@
         <v>2.13</v>
       </c>
       <c r="AP315">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ315">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR315">
         <v>1.11</v>
@@ -66707,7 +66734,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ316">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR316">
         <v>1.25</v>
@@ -66913,7 +66940,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ317">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR317">
         <v>1.22</v>
@@ -67038,7 +67065,7 @@
         <v>90</v>
       </c>
       <c r="P318" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q318">
         <v>3.27</v>
@@ -67116,10 +67143,10 @@
         <v>1</v>
       </c>
       <c r="AP318">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ318">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR318">
         <v>1.25</v>
@@ -67244,7 +67271,7 @@
         <v>279</v>
       </c>
       <c r="P319" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="Q319">
         <v>2.6</v>
@@ -67325,7 +67352,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ319">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR319">
         <v>1.63</v>
@@ -67450,7 +67477,7 @@
         <v>158</v>
       </c>
       <c r="P320" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q320">
         <v>3.3</v>
@@ -67528,7 +67555,7 @@
         <v>1.6</v>
       </c>
       <c r="AP320">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ320">
         <v>1.72</v>
@@ -67734,10 +67761,10 @@
         <v>1.6</v>
       </c>
       <c r="AP321">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ321">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR321">
         <v>1.48</v>
@@ -67862,7 +67889,7 @@
         <v>139</v>
       </c>
       <c r="P322" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q322">
         <v>2.7</v>
@@ -68274,7 +68301,7 @@
         <v>280</v>
       </c>
       <c r="P324" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q324">
         <v>2.35</v>
@@ -68686,7 +68713,7 @@
         <v>152</v>
       </c>
       <c r="P326" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Q326">
         <v>2.05</v>
@@ -68764,10 +68791,10 @@
         <v>0.93</v>
       </c>
       <c r="AP326">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AQ326">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR326">
         <v>1.76</v>
@@ -68892,7 +68919,7 @@
         <v>281</v>
       </c>
       <c r="P327" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q327">
         <v>2.35</v>
@@ -68970,7 +68997,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP327">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AQ327">
         <v>0.72</v>
@@ -69382,7 +69409,7 @@
         <v>1.5</v>
       </c>
       <c r="AP329">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ329">
         <v>1.5</v>
@@ -69591,7 +69618,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ330">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AR330">
         <v>1.4</v>
@@ -69797,7 +69824,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ331">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AR331">
         <v>1.46</v>
@@ -69922,7 +69949,7 @@
         <v>90</v>
       </c>
       <c r="P332" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q332">
         <v>3</v>
@@ -70000,10 +70027,10 @@
         <v>1.13</v>
       </c>
       <c r="AP332">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AQ332">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR332">
         <v>1.28</v>
@@ -70209,7 +70236,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ333">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR333">
         <v>1.62</v>
@@ -70415,7 +70442,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ334">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR334">
         <v>1.2</v>
@@ -70618,10 +70645,10 @@
         <v>1.19</v>
       </c>
       <c r="AP335">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ335">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR335">
         <v>1.36</v>
@@ -70824,10 +70851,10 @@
         <v>1.19</v>
       </c>
       <c r="AP336">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AQ336">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AR336">
         <v>1.44</v>
@@ -70952,7 +70979,7 @@
         <v>284</v>
       </c>
       <c r="P337" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q337">
         <v>4.4</v>
@@ -71030,7 +71057,7 @@
         <v>1.69</v>
       </c>
       <c r="AP337">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AQ337">
         <v>1.72</v>
@@ -71236,7 +71263,7 @@
         <v>2.06</v>
       </c>
       <c r="AP338">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ338">
         <v>1.89</v>
@@ -71364,7 +71391,7 @@
         <v>121</v>
       </c>
       <c r="P339" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q339">
         <v>4.6</v>
@@ -71442,10 +71469,10 @@
         <v>1.56</v>
       </c>
       <c r="AP339">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AQ339">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AR339">
         <v>1.45</v>
@@ -71648,10 +71675,10 @@
         <v>1.56</v>
       </c>
       <c r="AP340">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AQ340">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AR340">
         <v>1.5</v>
@@ -71854,10 +71881,10 @@
         <v>1.13</v>
       </c>
       <c r="AP341">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ341">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AR341">
         <v>1.09</v>
@@ -72188,7 +72215,7 @@
         <v>286</v>
       </c>
       <c r="P343" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="Q343">
         <v>2.65</v>
@@ -73012,7 +73039,7 @@
         <v>90</v>
       </c>
       <c r="P347" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q347">
         <v>3.3</v>
@@ -73630,7 +73657,7 @@
         <v>291</v>
       </c>
       <c r="P350" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q350">
         <v>2.3</v>
@@ -73993,6 +74020,2066 @@
       </c>
       <c r="BP351">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>6846303</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45413.3125</v>
+      </c>
+      <c r="F352">
+        <v>36</v>
+      </c>
+      <c r="G352" t="s">
+        <v>72</v>
+      </c>
+      <c r="H352" t="s">
+        <v>84</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>2</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352">
+        <v>3</v>
+      </c>
+      <c r="O352" t="s">
+        <v>293</v>
+      </c>
+      <c r="P352" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q352">
+        <v>2.3</v>
+      </c>
+      <c r="R352">
+        <v>2.2</v>
+      </c>
+      <c r="S352">
+        <v>4.6</v>
+      </c>
+      <c r="T352">
+        <v>1.38</v>
+      </c>
+      <c r="U352">
+        <v>2.9</v>
+      </c>
+      <c r="V352">
+        <v>2.7</v>
+      </c>
+      <c r="W352">
+        <v>1.42</v>
+      </c>
+      <c r="X352">
+        <v>6.25</v>
+      </c>
+      <c r="Y352">
+        <v>1.09</v>
+      </c>
+      <c r="Z352">
+        <v>1.75</v>
+      </c>
+      <c r="AA352">
+        <v>3.6</v>
+      </c>
+      <c r="AB352">
+        <v>4.2</v>
+      </c>
+      <c r="AC352">
+        <v>1.05</v>
+      </c>
+      <c r="AD352">
+        <v>12</v>
+      </c>
+      <c r="AE352">
+        <v>1.28</v>
+      </c>
+      <c r="AF352">
+        <v>3.68</v>
+      </c>
+      <c r="AG352">
+        <v>1.85</v>
+      </c>
+      <c r="AH352">
+        <v>1.85</v>
+      </c>
+      <c r="AI352">
+        <v>1.78</v>
+      </c>
+      <c r="AJ352">
+        <v>1.95</v>
+      </c>
+      <c r="AK352">
+        <v>1.21</v>
+      </c>
+      <c r="AL352">
+        <v>1.28</v>
+      </c>
+      <c r="AM352">
+        <v>2</v>
+      </c>
+      <c r="AN352">
+        <v>1.53</v>
+      </c>
+      <c r="AO352">
+        <v>1.18</v>
+      </c>
+      <c r="AP352">
+        <v>1.61</v>
+      </c>
+      <c r="AQ352">
+        <v>1.11</v>
+      </c>
+      <c r="AR352">
+        <v>1.81</v>
+      </c>
+      <c r="AS352">
+        <v>1.22</v>
+      </c>
+      <c r="AT352">
+        <v>3.03</v>
+      </c>
+      <c r="AU352">
+        <v>7</v>
+      </c>
+      <c r="AV352">
+        <v>5</v>
+      </c>
+      <c r="AW352">
+        <v>4</v>
+      </c>
+      <c r="AX352">
+        <v>5</v>
+      </c>
+      <c r="AY352">
+        <v>11</v>
+      </c>
+      <c r="AZ352">
+        <v>10</v>
+      </c>
+      <c r="BA352">
+        <v>4</v>
+      </c>
+      <c r="BB352">
+        <v>2</v>
+      </c>
+      <c r="BC352">
+        <v>6</v>
+      </c>
+      <c r="BD352">
+        <v>1.51</v>
+      </c>
+      <c r="BE352">
+        <v>8.5</v>
+      </c>
+      <c r="BF352">
+        <v>3.16</v>
+      </c>
+      <c r="BG352">
+        <v>1.28</v>
+      </c>
+      <c r="BH352">
+        <v>3.5</v>
+      </c>
+      <c r="BI352">
+        <v>1.53</v>
+      </c>
+      <c r="BJ352">
+        <v>2.46</v>
+      </c>
+      <c r="BK352">
+        <v>2</v>
+      </c>
+      <c r="BL352">
+        <v>1.8</v>
+      </c>
+      <c r="BM352">
+        <v>2.34</v>
+      </c>
+      <c r="BN352">
+        <v>1.58</v>
+      </c>
+      <c r="BO352">
+        <v>3.45</v>
+      </c>
+      <c r="BP352">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>6846299</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45413.41666666666</v>
+      </c>
+      <c r="F353">
+        <v>36</v>
+      </c>
+      <c r="G353" t="s">
+        <v>85</v>
+      </c>
+      <c r="H353" t="s">
+        <v>71</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353">
+        <v>1</v>
+      </c>
+      <c r="O353" t="s">
+        <v>90</v>
+      </c>
+      <c r="P353" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q353">
+        <v>3.29</v>
+      </c>
+      <c r="R353">
+        <v>2</v>
+      </c>
+      <c r="S353">
+        <v>4.14</v>
+      </c>
+      <c r="T353">
+        <v>1.56</v>
+      </c>
+      <c r="U353">
+        <v>2.45</v>
+      </c>
+      <c r="V353">
+        <v>3.64</v>
+      </c>
+      <c r="W353">
+        <v>1.26</v>
+      </c>
+      <c r="X353">
+        <v>10</v>
+      </c>
+      <c r="Y353">
+        <v>1.03</v>
+      </c>
+      <c r="Z353">
+        <v>2.4</v>
+      </c>
+      <c r="AA353">
+        <v>2.9</v>
+      </c>
+      <c r="AB353">
+        <v>3.1</v>
+      </c>
+      <c r="AC353">
+        <v>1.07</v>
+      </c>
+      <c r="AD353">
+        <v>6.2</v>
+      </c>
+      <c r="AE353">
+        <v>1.5</v>
+      </c>
+      <c r="AF353">
+        <v>2.35</v>
+      </c>
+      <c r="AG353">
+        <v>2.6</v>
+      </c>
+      <c r="AH353">
+        <v>1.44</v>
+      </c>
+      <c r="AI353">
+        <v>2.09</v>
+      </c>
+      <c r="AJ353">
+        <v>1.69</v>
+      </c>
+      <c r="AK353">
+        <v>1.35</v>
+      </c>
+      <c r="AL353">
+        <v>1.3</v>
+      </c>
+      <c r="AM353">
+        <v>1.53</v>
+      </c>
+      <c r="AN353">
+        <v>1.18</v>
+      </c>
+      <c r="AO353">
+        <v>1.24</v>
+      </c>
+      <c r="AP353">
+        <v>1.11</v>
+      </c>
+      <c r="AQ353">
+        <v>1.33</v>
+      </c>
+      <c r="AR353">
+        <v>1.41</v>
+      </c>
+      <c r="AS353">
+        <v>1.28</v>
+      </c>
+      <c r="AT353">
+        <v>2.69</v>
+      </c>
+      <c r="AU353">
+        <v>5</v>
+      </c>
+      <c r="AV353">
+        <v>4</v>
+      </c>
+      <c r="AW353">
+        <v>7</v>
+      </c>
+      <c r="AX353">
+        <v>5</v>
+      </c>
+      <c r="AY353">
+        <v>12</v>
+      </c>
+      <c r="AZ353">
+        <v>9</v>
+      </c>
+      <c r="BA353">
+        <v>11</v>
+      </c>
+      <c r="BB353">
+        <v>3</v>
+      </c>
+      <c r="BC353">
+        <v>14</v>
+      </c>
+      <c r="BD353">
+        <v>1.75</v>
+      </c>
+      <c r="BE353">
+        <v>8</v>
+      </c>
+      <c r="BF353">
+        <v>2.44</v>
+      </c>
+      <c r="BG353">
+        <v>1.27</v>
+      </c>
+      <c r="BH353">
+        <v>3.55</v>
+      </c>
+      <c r="BI353">
+        <v>1.5</v>
+      </c>
+      <c r="BJ353">
+        <v>2.48</v>
+      </c>
+      <c r="BK353">
+        <v>1.95</v>
+      </c>
+      <c r="BL353">
+        <v>1.85</v>
+      </c>
+      <c r="BM353">
+        <v>2.45</v>
+      </c>
+      <c r="BN353">
+        <v>1.5</v>
+      </c>
+      <c r="BO353">
+        <v>3.4</v>
+      </c>
+      <c r="BP353">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="354" spans="1:68">
+      <c r="A354" s="1">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>6846301</v>
+      </c>
+      <c r="C354" t="s">
+        <v>68</v>
+      </c>
+      <c r="D354" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45413.41666666666</v>
+      </c>
+      <c r="F354">
+        <v>36</v>
+      </c>
+      <c r="G354" t="s">
+        <v>82</v>
+      </c>
+      <c r="H354" t="s">
+        <v>77</v>
+      </c>
+      <c r="I354">
+        <v>1</v>
+      </c>
+      <c r="J354">
+        <v>1</v>
+      </c>
+      <c r="K354">
+        <v>2</v>
+      </c>
+      <c r="L354">
+        <v>3</v>
+      </c>
+      <c r="M354">
+        <v>2</v>
+      </c>
+      <c r="N354">
+        <v>5</v>
+      </c>
+      <c r="O354" t="s">
+        <v>294</v>
+      </c>
+      <c r="P354" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q354">
+        <v>3.5</v>
+      </c>
+      <c r="R354">
+        <v>2.25</v>
+      </c>
+      <c r="S354">
+        <v>2.7</v>
+      </c>
+      <c r="T354">
+        <v>1.33</v>
+      </c>
+      <c r="U354">
+        <v>3</v>
+      </c>
+      <c r="V354">
+        <v>2.5</v>
+      </c>
+      <c r="W354">
+        <v>1.48</v>
+      </c>
+      <c r="X354">
+        <v>5.75</v>
+      </c>
+      <c r="Y354">
+        <v>1.1</v>
+      </c>
+      <c r="Z354">
+        <v>3</v>
+      </c>
+      <c r="AA354">
+        <v>3.4</v>
+      </c>
+      <c r="AB354">
+        <v>2.15</v>
+      </c>
+      <c r="AC354">
+        <v>1.04</v>
+      </c>
+      <c r="AD354">
+        <v>14</v>
+      </c>
+      <c r="AE354">
+        <v>1.22</v>
+      </c>
+      <c r="AF354">
+        <v>3.8</v>
+      </c>
+      <c r="AG354">
+        <v>1.7</v>
+      </c>
+      <c r="AH354">
+        <v>2</v>
+      </c>
+      <c r="AI354">
+        <v>1.62</v>
+      </c>
+      <c r="AJ354">
+        <v>2.2</v>
+      </c>
+      <c r="AK354">
+        <v>1.65</v>
+      </c>
+      <c r="AL354">
+        <v>1.3</v>
+      </c>
+      <c r="AM354">
+        <v>1.35</v>
+      </c>
+      <c r="AN354">
+        <v>1.65</v>
+      </c>
+      <c r="AO354">
+        <v>1.65</v>
+      </c>
+      <c r="AP354">
+        <v>1.72</v>
+      </c>
+      <c r="AQ354">
+        <v>1.56</v>
+      </c>
+      <c r="AR354">
+        <v>1.3</v>
+      </c>
+      <c r="AS354">
+        <v>1.38</v>
+      </c>
+      <c r="AT354">
+        <v>2.68</v>
+      </c>
+      <c r="AU354">
+        <v>7</v>
+      </c>
+      <c r="AV354">
+        <v>5</v>
+      </c>
+      <c r="AW354">
+        <v>5</v>
+      </c>
+      <c r="AX354">
+        <v>7</v>
+      </c>
+      <c r="AY354">
+        <v>12</v>
+      </c>
+      <c r="AZ354">
+        <v>12</v>
+      </c>
+      <c r="BA354">
+        <v>10</v>
+      </c>
+      <c r="BB354">
+        <v>1</v>
+      </c>
+      <c r="BC354">
+        <v>11</v>
+      </c>
+      <c r="BD354">
+        <v>2.2</v>
+      </c>
+      <c r="BE354">
+        <v>8</v>
+      </c>
+      <c r="BF354">
+        <v>1.91</v>
+      </c>
+      <c r="BG354">
+        <v>1.28</v>
+      </c>
+      <c r="BH354">
+        <v>3.5</v>
+      </c>
+      <c r="BI354">
+        <v>1.5</v>
+      </c>
+      <c r="BJ354">
+        <v>2.43</v>
+      </c>
+      <c r="BK354">
+        <v>1.98</v>
+      </c>
+      <c r="BL354">
+        <v>1.82</v>
+      </c>
+      <c r="BM354">
+        <v>2.5</v>
+      </c>
+      <c r="BN354">
+        <v>1.49</v>
+      </c>
+      <c r="BO354">
+        <v>3.45</v>
+      </c>
+      <c r="BP354">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="355" spans="1:68">
+      <c r="A355" s="1">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>6846302</v>
+      </c>
+      <c r="C355" t="s">
+        <v>68</v>
+      </c>
+      <c r="D355" t="s">
+        <v>69</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45413.41666666666</v>
+      </c>
+      <c r="F355">
+        <v>36</v>
+      </c>
+      <c r="G355" t="s">
+        <v>80</v>
+      </c>
+      <c r="H355" t="s">
+        <v>75</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>2</v>
+      </c>
+      <c r="M355">
+        <v>1</v>
+      </c>
+      <c r="N355">
+        <v>3</v>
+      </c>
+      <c r="O355" t="s">
+        <v>295</v>
+      </c>
+      <c r="P355" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q355">
+        <v>2.26</v>
+      </c>
+      <c r="R355">
+        <v>2.27</v>
+      </c>
+      <c r="S355">
+        <v>6.12</v>
+      </c>
+      <c r="T355">
+        <v>1.44</v>
+      </c>
+      <c r="U355">
+        <v>2.88</v>
+      </c>
+      <c r="V355">
+        <v>3.17</v>
+      </c>
+      <c r="W355">
+        <v>1.37</v>
+      </c>
+      <c r="X355">
+        <v>7.8</v>
+      </c>
+      <c r="Y355">
+        <v>1.06</v>
+      </c>
+      <c r="Z355">
+        <v>1.62</v>
+      </c>
+      <c r="AA355">
+        <v>3.6</v>
+      </c>
+      <c r="AB355">
+        <v>5.25</v>
+      </c>
+      <c r="AC355">
+        <v>1.03</v>
+      </c>
+      <c r="AD355">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE355">
+        <v>1.32</v>
+      </c>
+      <c r="AF355">
+        <v>2.98</v>
+      </c>
+      <c r="AG355">
+        <v>2</v>
+      </c>
+      <c r="AH355">
+        <v>1.7</v>
+      </c>
+      <c r="AI355">
+        <v>2.02</v>
+      </c>
+      <c r="AJ355">
+        <v>1.74</v>
+      </c>
+      <c r="AK355">
+        <v>1.14</v>
+      </c>
+      <c r="AL355">
+        <v>1.22</v>
+      </c>
+      <c r="AM355">
+        <v>2.2</v>
+      </c>
+      <c r="AN355">
+        <v>2.18</v>
+      </c>
+      <c r="AO355">
+        <v>1.12</v>
+      </c>
+      <c r="AP355">
+        <v>2.22</v>
+      </c>
+      <c r="AQ355">
+        <v>1.06</v>
+      </c>
+      <c r="AR355">
+        <v>1.39</v>
+      </c>
+      <c r="AS355">
+        <v>1.41</v>
+      </c>
+      <c r="AT355">
+        <v>2.8</v>
+      </c>
+      <c r="AU355">
+        <v>10</v>
+      </c>
+      <c r="AV355">
+        <v>6</v>
+      </c>
+      <c r="AW355">
+        <v>5</v>
+      </c>
+      <c r="AX355">
+        <v>7</v>
+      </c>
+      <c r="AY355">
+        <v>15</v>
+      </c>
+      <c r="AZ355">
+        <v>13</v>
+      </c>
+      <c r="BA355">
+        <v>4</v>
+      </c>
+      <c r="BB355">
+        <v>9</v>
+      </c>
+      <c r="BC355">
+        <v>13</v>
+      </c>
+      <c r="BD355">
+        <v>1.59</v>
+      </c>
+      <c r="BE355">
+        <v>8</v>
+      </c>
+      <c r="BF355">
+        <v>2.8</v>
+      </c>
+      <c r="BG355">
+        <v>1.35</v>
+      </c>
+      <c r="BH355">
+        <v>3.05</v>
+      </c>
+      <c r="BI355">
+        <v>1.7</v>
+      </c>
+      <c r="BJ355">
+        <v>2.05</v>
+      </c>
+      <c r="BK355">
+        <v>2</v>
+      </c>
+      <c r="BL355">
+        <v>1.74</v>
+      </c>
+      <c r="BM355">
+        <v>2.85</v>
+      </c>
+      <c r="BN355">
+        <v>1.38</v>
+      </c>
+      <c r="BO355">
+        <v>4</v>
+      </c>
+      <c r="BP355">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>6846306</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45413.41666666666</v>
+      </c>
+      <c r="F356">
+        <v>36</v>
+      </c>
+      <c r="G356" t="s">
+        <v>89</v>
+      </c>
+      <c r="H356" t="s">
+        <v>86</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356" t="s">
+        <v>237</v>
+      </c>
+      <c r="P356" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q356">
+        <v>2.93</v>
+      </c>
+      <c r="R356">
+        <v>2.31</v>
+      </c>
+      <c r="S356">
+        <v>3.71</v>
+      </c>
+      <c r="T356">
+        <v>1.36</v>
+      </c>
+      <c r="U356">
+        <v>3.2</v>
+      </c>
+      <c r="V356">
+        <v>2.78</v>
+      </c>
+      <c r="W356">
+        <v>1.45</v>
+      </c>
+      <c r="X356">
+        <v>6.65</v>
+      </c>
+      <c r="Y356">
+        <v>1.09</v>
+      </c>
+      <c r="Z356">
+        <v>2.25</v>
+      </c>
+      <c r="AA356">
+        <v>3.3</v>
+      </c>
+      <c r="AB356">
+        <v>3</v>
+      </c>
+      <c r="AC356">
+        <v>1.01</v>
+      </c>
+      <c r="AD356">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE356">
+        <v>1.24</v>
+      </c>
+      <c r="AF356">
+        <v>3.5</v>
+      </c>
+      <c r="AG356">
+        <v>1.86</v>
+      </c>
+      <c r="AH356">
+        <v>1.96</v>
+      </c>
+      <c r="AI356">
+        <v>1.67</v>
+      </c>
+      <c r="AJ356">
+        <v>2.12</v>
+      </c>
+      <c r="AK356">
+        <v>1.36</v>
+      </c>
+      <c r="AL356">
+        <v>1.28</v>
+      </c>
+      <c r="AM356">
+        <v>1.6</v>
+      </c>
+      <c r="AN356">
+        <v>1.18</v>
+      </c>
+      <c r="AO356">
+        <v>1.47</v>
+      </c>
+      <c r="AP356">
+        <v>1.28</v>
+      </c>
+      <c r="AQ356">
+        <v>1.39</v>
+      </c>
+      <c r="AR356">
+        <v>1.5</v>
+      </c>
+      <c r="AS356">
+        <v>1.3</v>
+      </c>
+      <c r="AT356">
+        <v>2.8</v>
+      </c>
+      <c r="AU356">
+        <v>4</v>
+      </c>
+      <c r="AV356">
+        <v>2</v>
+      </c>
+      <c r="AW356">
+        <v>8</v>
+      </c>
+      <c r="AX356">
+        <v>4</v>
+      </c>
+      <c r="AY356">
+        <v>12</v>
+      </c>
+      <c r="AZ356">
+        <v>6</v>
+      </c>
+      <c r="BA356">
+        <v>5</v>
+      </c>
+      <c r="BB356">
+        <v>3</v>
+      </c>
+      <c r="BC356">
+        <v>8</v>
+      </c>
+      <c r="BD356">
+        <v>1.75</v>
+      </c>
+      <c r="BE356">
+        <v>8</v>
+      </c>
+      <c r="BF356">
+        <v>2.44</v>
+      </c>
+      <c r="BG356">
+        <v>1.18</v>
+      </c>
+      <c r="BH356">
+        <v>4.6</v>
+      </c>
+      <c r="BI356">
+        <v>1.34</v>
+      </c>
+      <c r="BJ356">
+        <v>3.1</v>
+      </c>
+      <c r="BK356">
+        <v>1.6</v>
+      </c>
+      <c r="BL356">
+        <v>2.25</v>
+      </c>
+      <c r="BM356">
+        <v>2</v>
+      </c>
+      <c r="BN356">
+        <v>1.73</v>
+      </c>
+      <c r="BO356">
+        <v>2.65</v>
+      </c>
+      <c r="BP356">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>6846307</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45413.41666666666</v>
+      </c>
+      <c r="F357">
+        <v>36</v>
+      </c>
+      <c r="G357" t="s">
+        <v>74</v>
+      </c>
+      <c r="H357" t="s">
+        <v>73</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>2</v>
+      </c>
+      <c r="K357">
+        <v>3</v>
+      </c>
+      <c r="L357">
+        <v>4</v>
+      </c>
+      <c r="M357">
+        <v>3</v>
+      </c>
+      <c r="N357">
+        <v>7</v>
+      </c>
+      <c r="O357" t="s">
+        <v>296</v>
+      </c>
+      <c r="P357" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q357">
+        <v>2.9</v>
+      </c>
+      <c r="R357">
+        <v>2</v>
+      </c>
+      <c r="S357">
+        <v>3.8</v>
+      </c>
+      <c r="T357">
+        <v>1.48</v>
+      </c>
+      <c r="U357">
+        <v>2.5</v>
+      </c>
+      <c r="V357">
+        <v>3.15</v>
+      </c>
+      <c r="W357">
+        <v>1.3</v>
+      </c>
+      <c r="X357">
+        <v>7.5</v>
+      </c>
+      <c r="Y357">
+        <v>1.06</v>
+      </c>
+      <c r="Z357">
+        <v>2.2</v>
+      </c>
+      <c r="AA357">
+        <v>3</v>
+      </c>
+      <c r="AB357">
+        <v>3.3</v>
+      </c>
+      <c r="AC357">
+        <v>1.08</v>
+      </c>
+      <c r="AD357">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE357">
+        <v>1.41</v>
+      </c>
+      <c r="AF357">
+        <v>2.95</v>
+      </c>
+      <c r="AG357">
+        <v>2.35</v>
+      </c>
+      <c r="AH357">
+        <v>1.53</v>
+      </c>
+      <c r="AI357">
+        <v>1.9</v>
+      </c>
+      <c r="AJ357">
+        <v>1.8</v>
+      </c>
+      <c r="AK357">
+        <v>1.32</v>
+      </c>
+      <c r="AL357">
+        <v>1.35</v>
+      </c>
+      <c r="AM357">
+        <v>1.62</v>
+      </c>
+      <c r="AN357">
+        <v>1.35</v>
+      </c>
+      <c r="AO357">
+        <v>1.06</v>
+      </c>
+      <c r="AP357">
+        <v>1.44</v>
+      </c>
+      <c r="AQ357">
+        <v>1</v>
+      </c>
+      <c r="AR357">
+        <v>1.1</v>
+      </c>
+      <c r="AS357">
+        <v>1.38</v>
+      </c>
+      <c r="AT357">
+        <v>2.48</v>
+      </c>
+      <c r="AU357">
+        <v>9</v>
+      </c>
+      <c r="AV357">
+        <v>6</v>
+      </c>
+      <c r="AW357">
+        <v>5</v>
+      </c>
+      <c r="AX357">
+        <v>3</v>
+      </c>
+      <c r="AY357">
+        <v>14</v>
+      </c>
+      <c r="AZ357">
+        <v>9</v>
+      </c>
+      <c r="BA357">
+        <v>5</v>
+      </c>
+      <c r="BB357">
+        <v>2</v>
+      </c>
+      <c r="BC357">
+        <v>7</v>
+      </c>
+      <c r="BD357">
+        <v>1.95</v>
+      </c>
+      <c r="BE357">
+        <v>8</v>
+      </c>
+      <c r="BF357">
+        <v>2.1</v>
+      </c>
+      <c r="BG357">
+        <v>1.27</v>
+      </c>
+      <c r="BH357">
+        <v>3.55</v>
+      </c>
+      <c r="BI357">
+        <v>1.5</v>
+      </c>
+      <c r="BJ357">
+        <v>2.48</v>
+      </c>
+      <c r="BK357">
+        <v>1.9</v>
+      </c>
+      <c r="BL357">
+        <v>1.9</v>
+      </c>
+      <c r="BM357">
+        <v>2.45</v>
+      </c>
+      <c r="BN357">
+        <v>1.5</v>
+      </c>
+      <c r="BO357">
+        <v>3.4</v>
+      </c>
+      <c r="BP357">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>6846304</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45413.54166666666</v>
+      </c>
+      <c r="F358">
+        <v>36</v>
+      </c>
+      <c r="G358" t="s">
+        <v>88</v>
+      </c>
+      <c r="H358" t="s">
+        <v>78</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>1</v>
+      </c>
+      <c r="N358">
+        <v>1</v>
+      </c>
+      <c r="O358" t="s">
+        <v>90</v>
+      </c>
+      <c r="P358" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q358">
+        <v>4.52</v>
+      </c>
+      <c r="R358">
+        <v>2.29</v>
+      </c>
+      <c r="S358">
+        <v>2.58</v>
+      </c>
+      <c r="T358">
+        <v>1.39</v>
+      </c>
+      <c r="U358">
+        <v>3.09</v>
+      </c>
+      <c r="V358">
+        <v>2.91</v>
+      </c>
+      <c r="W358">
+        <v>1.43</v>
+      </c>
+      <c r="X358">
+        <v>7.1</v>
+      </c>
+      <c r="Y358">
+        <v>1.08</v>
+      </c>
+      <c r="Z358">
+        <v>3.6</v>
+      </c>
+      <c r="AA358">
+        <v>3.5</v>
+      </c>
+      <c r="AB358">
+        <v>1.95</v>
+      </c>
+      <c r="AC358">
+        <v>1.02</v>
+      </c>
+      <c r="AD358">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE358">
+        <v>1.27</v>
+      </c>
+      <c r="AF358">
+        <v>3.28</v>
+      </c>
+      <c r="AG358">
+        <v>1.85</v>
+      </c>
+      <c r="AH358">
+        <v>1.83</v>
+      </c>
+      <c r="AI358">
+        <v>1.78</v>
+      </c>
+      <c r="AJ358">
+        <v>1.97</v>
+      </c>
+      <c r="AK358">
+        <v>1.77</v>
+      </c>
+      <c r="AL358">
+        <v>1.25</v>
+      </c>
+      <c r="AM358">
+        <v>1.25</v>
+      </c>
+      <c r="AN358">
+        <v>0.82</v>
+      </c>
+      <c r="AO358">
+        <v>1.53</v>
+      </c>
+      <c r="AP358">
+        <v>0.78</v>
+      </c>
+      <c r="AQ358">
+        <v>1.61</v>
+      </c>
+      <c r="AR358">
+        <v>1.44</v>
+      </c>
+      <c r="AS358">
+        <v>1.12</v>
+      </c>
+      <c r="AT358">
+        <v>2.56</v>
+      </c>
+      <c r="AU358">
+        <v>2</v>
+      </c>
+      <c r="AV358">
+        <v>3</v>
+      </c>
+      <c r="AW358">
+        <v>7</v>
+      </c>
+      <c r="AX358">
+        <v>5</v>
+      </c>
+      <c r="AY358">
+        <v>9</v>
+      </c>
+      <c r="AZ358">
+        <v>8</v>
+      </c>
+      <c r="BA358">
+        <v>3</v>
+      </c>
+      <c r="BB358">
+        <v>5</v>
+      </c>
+      <c r="BC358">
+        <v>8</v>
+      </c>
+      <c r="BD358">
+        <v>2.2</v>
+      </c>
+      <c r="BE358">
+        <v>7.5</v>
+      </c>
+      <c r="BF358">
+        <v>1.91</v>
+      </c>
+      <c r="BG358">
+        <v>1.4</v>
+      </c>
+      <c r="BH358">
+        <v>2.85</v>
+      </c>
+      <c r="BI358">
+        <v>1.73</v>
+      </c>
+      <c r="BJ358">
+        <v>2</v>
+      </c>
+      <c r="BK358">
+        <v>2.23</v>
+      </c>
+      <c r="BL358">
+        <v>1.6</v>
+      </c>
+      <c r="BM358">
+        <v>3.1</v>
+      </c>
+      <c r="BN358">
+        <v>1.34</v>
+      </c>
+      <c r="BO358">
+        <v>4.4</v>
+      </c>
+      <c r="BP358">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>6846300</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45413.54166666666</v>
+      </c>
+      <c r="F359">
+        <v>36</v>
+      </c>
+      <c r="G359" t="s">
+        <v>70</v>
+      </c>
+      <c r="H359" t="s">
+        <v>76</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
+      <c r="M359">
+        <v>1</v>
+      </c>
+      <c r="N359">
+        <v>2</v>
+      </c>
+      <c r="O359" t="s">
+        <v>253</v>
+      </c>
+      <c r="P359" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q359">
+        <v>4.05</v>
+      </c>
+      <c r="R359">
+        <v>2.03</v>
+      </c>
+      <c r="S359">
+        <v>2.83</v>
+      </c>
+      <c r="T359">
+        <v>1.45</v>
+      </c>
+      <c r="U359">
+        <v>2.64</v>
+      </c>
+      <c r="V359">
+        <v>3</v>
+      </c>
+      <c r="W359">
+        <v>1.36</v>
+      </c>
+      <c r="X359">
+        <v>7.8</v>
+      </c>
+      <c r="Y359">
+        <v>1.06</v>
+      </c>
+      <c r="Z359">
+        <v>3.3</v>
+      </c>
+      <c r="AA359">
+        <v>3.25</v>
+      </c>
+      <c r="AB359">
+        <v>2.15</v>
+      </c>
+      <c r="AC359">
+        <v>1.03</v>
+      </c>
+      <c r="AD359">
+        <v>7.9</v>
+      </c>
+      <c r="AE359">
+        <v>1.32</v>
+      </c>
+      <c r="AF359">
+        <v>2.98</v>
+      </c>
+      <c r="AG359">
+        <v>2</v>
+      </c>
+      <c r="AH359">
+        <v>1.73</v>
+      </c>
+      <c r="AI359">
+        <v>1.84</v>
+      </c>
+      <c r="AJ359">
+        <v>1.9</v>
+      </c>
+      <c r="AK359">
+        <v>1.67</v>
+      </c>
+      <c r="AL359">
+        <v>1.28</v>
+      </c>
+      <c r="AM359">
+        <v>1.3</v>
+      </c>
+      <c r="AN359">
+        <v>1.35</v>
+      </c>
+      <c r="AO359">
+        <v>2</v>
+      </c>
+      <c r="AP359">
+        <v>1.33</v>
+      </c>
+      <c r="AQ359">
+        <v>1.94</v>
+      </c>
+      <c r="AR359">
+        <v>1.37</v>
+      </c>
+      <c r="AS359">
+        <v>1.39</v>
+      </c>
+      <c r="AT359">
+        <v>2.76</v>
+      </c>
+      <c r="AU359">
+        <v>4</v>
+      </c>
+      <c r="AV359">
+        <v>4</v>
+      </c>
+      <c r="AW359">
+        <v>1</v>
+      </c>
+      <c r="AX359">
+        <v>5</v>
+      </c>
+      <c r="AY359">
+        <v>5</v>
+      </c>
+      <c r="AZ359">
+        <v>9</v>
+      </c>
+      <c r="BA359">
+        <v>7</v>
+      </c>
+      <c r="BB359">
+        <v>1</v>
+      </c>
+      <c r="BC359">
+        <v>8</v>
+      </c>
+      <c r="BD359">
+        <v>2.39</v>
+      </c>
+      <c r="BE359">
+        <v>8</v>
+      </c>
+      <c r="BF359">
+        <v>1.82</v>
+      </c>
+      <c r="BG359">
+        <v>1.22</v>
+      </c>
+      <c r="BH359">
+        <v>4</v>
+      </c>
+      <c r="BI359">
+        <v>1.41</v>
+      </c>
+      <c r="BJ359">
+        <v>2.8</v>
+      </c>
+      <c r="BK359">
+        <v>1.73</v>
+      </c>
+      <c r="BL359">
+        <v>2</v>
+      </c>
+      <c r="BM359">
+        <v>2.2</v>
+      </c>
+      <c r="BN359">
+        <v>1.62</v>
+      </c>
+      <c r="BO359">
+        <v>3</v>
+      </c>
+      <c r="BP359">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>7195383</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45413.54166666666</v>
+      </c>
+      <c r="F360">
+        <v>36</v>
+      </c>
+      <c r="G360" t="s">
+        <v>81</v>
+      </c>
+      <c r="H360" t="s">
+        <v>87</v>
+      </c>
+      <c r="I360">
+        <v>2</v>
+      </c>
+      <c r="J360">
+        <v>2</v>
+      </c>
+      <c r="K360">
+        <v>4</v>
+      </c>
+      <c r="L360">
+        <v>2</v>
+      </c>
+      <c r="M360">
+        <v>2</v>
+      </c>
+      <c r="N360">
+        <v>4</v>
+      </c>
+      <c r="O360" t="s">
+        <v>297</v>
+      </c>
+      <c r="P360" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q360">
+        <v>3.24</v>
+      </c>
+      <c r="R360">
+        <v>1.99</v>
+      </c>
+      <c r="S360">
+        <v>3.56</v>
+      </c>
+      <c r="T360">
+        <v>1.48</v>
+      </c>
+      <c r="U360">
+        <v>2.55</v>
+      </c>
+      <c r="V360">
+        <v>3.16</v>
+      </c>
+      <c r="W360">
+        <v>1.33</v>
+      </c>
+      <c r="X360">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y360">
+        <v>1.06</v>
+      </c>
+      <c r="Z360">
+        <v>2.55</v>
+      </c>
+      <c r="AA360">
+        <v>3</v>
+      </c>
+      <c r="AB360">
+        <v>2.8</v>
+      </c>
+      <c r="AC360">
+        <v>1.04</v>
+      </c>
+      <c r="AD360">
+        <v>7.4</v>
+      </c>
+      <c r="AE360">
+        <v>1.35</v>
+      </c>
+      <c r="AF360">
+        <v>2.84</v>
+      </c>
+      <c r="AG360">
+        <v>2.1</v>
+      </c>
+      <c r="AH360">
+        <v>1.65</v>
+      </c>
+      <c r="AI360">
+        <v>1.87</v>
+      </c>
+      <c r="AJ360">
+        <v>1.87</v>
+      </c>
+      <c r="AK360">
+        <v>1.44</v>
+      </c>
+      <c r="AL360">
+        <v>1.3</v>
+      </c>
+      <c r="AM360">
+        <v>1.48</v>
+      </c>
+      <c r="AN360">
+        <v>0.76</v>
+      </c>
+      <c r="AO360">
+        <v>1.24</v>
+      </c>
+      <c r="AP360">
+        <v>0.78</v>
+      </c>
+      <c r="AQ360">
+        <v>1.22</v>
+      </c>
+      <c r="AR360">
+        <v>1.33</v>
+      </c>
+      <c r="AS360">
+        <v>1.27</v>
+      </c>
+      <c r="AT360">
+        <v>2.6</v>
+      </c>
+      <c r="AU360">
+        <v>5</v>
+      </c>
+      <c r="AV360">
+        <v>4</v>
+      </c>
+      <c r="AW360">
+        <v>6</v>
+      </c>
+      <c r="AX360">
+        <v>3</v>
+      </c>
+      <c r="AY360">
+        <v>11</v>
+      </c>
+      <c r="AZ360">
+        <v>7</v>
+      </c>
+      <c r="BA360">
+        <v>9</v>
+      </c>
+      <c r="BB360">
+        <v>6</v>
+      </c>
+      <c r="BC360">
+        <v>15</v>
+      </c>
+      <c r="BD360">
+        <v>1.91</v>
+      </c>
+      <c r="BE360">
+        <v>7.5</v>
+      </c>
+      <c r="BF360">
+        <v>2.2</v>
+      </c>
+      <c r="BG360">
+        <v>1.3</v>
+      </c>
+      <c r="BH360">
+        <v>3.25</v>
+      </c>
+      <c r="BI360">
+        <v>1.58</v>
+      </c>
+      <c r="BJ360">
+        <v>2.28</v>
+      </c>
+      <c r="BK360">
+        <v>2</v>
+      </c>
+      <c r="BL360">
+        <v>1.73</v>
+      </c>
+      <c r="BM360">
+        <v>2.7</v>
+      </c>
+      <c r="BN360">
+        <v>1.43</v>
+      </c>
+      <c r="BO360">
+        <v>3.75</v>
+      </c>
+      <c r="BP360">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>6846305</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45413.54166666666</v>
+      </c>
+      <c r="F361">
+        <v>36</v>
+      </c>
+      <c r="G361" t="s">
+        <v>83</v>
+      </c>
+      <c r="H361" t="s">
+        <v>79</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>1</v>
+      </c>
+      <c r="O361" t="s">
+        <v>138</v>
+      </c>
+      <c r="P361" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q361">
+        <v>3.45</v>
+      </c>
+      <c r="R361">
+        <v>1.9</v>
+      </c>
+      <c r="S361">
+        <v>3.3</v>
+      </c>
+      <c r="T361">
+        <v>1.53</v>
+      </c>
+      <c r="U361">
+        <v>2.35</v>
+      </c>
+      <c r="V361">
+        <v>3.45</v>
+      </c>
+      <c r="W361">
+        <v>1.25</v>
+      </c>
+      <c r="X361">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y361">
+        <v>1.04</v>
+      </c>
+      <c r="Z361">
+        <v>2.9</v>
+      </c>
+      <c r="AA361">
+        <v>3</v>
+      </c>
+      <c r="AB361">
+        <v>2.45</v>
+      </c>
+      <c r="AC361">
+        <v>1.1</v>
+      </c>
+      <c r="AD361">
+        <v>6.5</v>
+      </c>
+      <c r="AE361">
+        <v>1.48</v>
+      </c>
+      <c r="AF361">
+        <v>2.6</v>
+      </c>
+      <c r="AG361">
+        <v>2.3</v>
+      </c>
+      <c r="AH361">
+        <v>1.55</v>
+      </c>
+      <c r="AI361">
+        <v>1.95</v>
+      </c>
+      <c r="AJ361">
+        <v>1.73</v>
+      </c>
+      <c r="AK361">
+        <v>1.45</v>
+      </c>
+      <c r="AL361">
+        <v>1.3</v>
+      </c>
+      <c r="AM361">
+        <v>1.42</v>
+      </c>
+      <c r="AN361">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AO361">
+        <v>1.18</v>
+      </c>
+      <c r="AP361">
+        <v>1.06</v>
+      </c>
+      <c r="AQ361">
+        <v>1.11</v>
+      </c>
+      <c r="AR361">
+        <v>1.3</v>
+      </c>
+      <c r="AS361">
+        <v>1.44</v>
+      </c>
+      <c r="AT361">
+        <v>2.74</v>
+      </c>
+      <c r="AU361">
+        <v>3</v>
+      </c>
+      <c r="AV361">
+        <v>0</v>
+      </c>
+      <c r="AW361">
+        <v>3</v>
+      </c>
+      <c r="AX361">
+        <v>6</v>
+      </c>
+      <c r="AY361">
+        <v>6</v>
+      </c>
+      <c r="AZ361">
+        <v>6</v>
+      </c>
+      <c r="BA361">
+        <v>3</v>
+      </c>
+      <c r="BB361">
+        <v>4</v>
+      </c>
+      <c r="BC361">
+        <v>7</v>
+      </c>
+      <c r="BD361">
+        <v>2.28</v>
+      </c>
+      <c r="BE361">
+        <v>8</v>
+      </c>
+      <c r="BF361">
+        <v>1.85</v>
+      </c>
+      <c r="BG361">
+        <v>1.25</v>
+      </c>
+      <c r="BH361">
+        <v>3.42</v>
+      </c>
+      <c r="BI361">
+        <v>1.49</v>
+      </c>
+      <c r="BJ361">
+        <v>2.44</v>
+      </c>
+      <c r="BK361">
+        <v>1.92</v>
+      </c>
+      <c r="BL361">
+        <v>1.88</v>
+      </c>
+      <c r="BM361">
+        <v>2.39</v>
+      </c>
+      <c r="BN361">
+        <v>1.51</v>
+      </c>
+      <c r="BO361">
+        <v>3.18</v>
+      </c>
+      <c r="BP361">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -75401,19 +75401,19 @@
         <v>2</v>
       </c>
       <c r="AV358">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW358">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX358">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY358">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ358">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA358">
         <v>3</v>
@@ -75604,22 +75604,22 @@
         <v>2.76</v>
       </c>
       <c r="AU359">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV359">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX359">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY359">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ359">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA359">
         <v>7</v>
@@ -75810,13 +75810,13 @@
         <v>2.6</v>
       </c>
       <c r="AU360">
+        <v>6</v>
+      </c>
+      <c r="AV360">
         <v>5</v>
       </c>
-      <c r="AV360">
-        <v>4</v>
-      </c>
       <c r="AW360">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX360">
         <v>3</v>
@@ -75825,7 +75825,7 @@
         <v>11</v>
       </c>
       <c r="AZ360">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA360">
         <v>9</v>
@@ -76016,22 +76016,22 @@
         <v>2.74</v>
       </c>
       <c r="AU361">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV361">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW361">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX361">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY361">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ361">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA361">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -76249,22 +76249,22 @@
         <v>2.51</v>
       </c>
       <c r="AU362">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV362">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW362">
         <v>5</v>
       </c>
       <c r="AX362">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY362">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ362">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA362">
         <v>5</v>
@@ -76458,19 +76458,19 @@
         <v>6</v>
       </c>
       <c r="AV363">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW363">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX363">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AY363">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ363">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="BA363">
         <v>5</v>
@@ -76664,19 +76664,19 @@
         <v>3</v>
       </c>
       <c r="AV364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW364">
+        <v>4</v>
+      </c>
+      <c r="AX364">
+        <v>2</v>
+      </c>
+      <c r="AY364">
         <v>7</v>
       </c>
-      <c r="AX364">
-        <v>8</v>
-      </c>
-      <c r="AY364">
-        <v>10</v>
-      </c>
       <c r="AZ364">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA364">
         <v>2</v>
@@ -76873,16 +76873,16 @@
         <v>6</v>
       </c>
       <c r="AW365">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX365">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY365">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ365">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA365">
         <v>2</v>
@@ -77073,22 +77073,22 @@
         <v>3.32</v>
       </c>
       <c r="AU366">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV366">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW366">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX366">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY366">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ366">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA366">
         <v>8</v>
@@ -77285,16 +77285,16 @@
         <v>6</v>
       </c>
       <c r="AW367">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AX367">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY367">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AZ367">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA367">
         <v>3</v>
@@ -77485,22 +77485,22 @@
         <v>2.58</v>
       </c>
       <c r="AU368">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV368">
         <v>6</v>
       </c>
       <c r="AW368">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX368">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY368">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ368">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA368">
         <v>5</v>
@@ -77694,19 +77694,19 @@
         <v>4</v>
       </c>
       <c r="AV369">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW369">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX369">
         <v>3</v>
       </c>
       <c r="AY369">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ369">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA369">
         <v>4</v>
@@ -77903,16 +77903,16 @@
         <v>2</v>
       </c>
       <c r="AW370">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX370">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY370">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ370">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA370">
         <v>3</v>
@@ -78109,16 +78109,16 @@
         <v>3</v>
       </c>
       <c r="AW371">
+        <v>4</v>
+      </c>
+      <c r="AX371">
         <v>6</v>
       </c>
-      <c r="AX371">
-        <v>11</v>
-      </c>
       <c r="AY371">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ371">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA371">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="463">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1764,7 +1764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP381"/>
+  <dimension ref="A1:BP382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>1.47</v>
@@ -5194,7 +5194,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ17">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -10756,7 +10756,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ44">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR44">
         <v>1.04</v>
@@ -12813,7 +12813,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ54">
         <v>1.53</v>
@@ -13846,7 +13846,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ59">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR59">
         <v>1.44</v>
@@ -16727,7 +16727,7 @@
         <v>2</v>
       </c>
       <c r="AP73">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ73">
         <v>1.68</v>
@@ -18790,7 +18790,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ83">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR83">
         <v>1.32</v>
@@ -19611,7 +19611,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
         <v>1.21</v>
@@ -23528,7 +23528,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ106">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR106">
         <v>1.39</v>
@@ -24761,7 +24761,7 @@
         <v>0.83</v>
       </c>
       <c r="AP112">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ112">
         <v>0.95</v>
@@ -27854,7 +27854,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ127">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR127">
         <v>1.52</v>
@@ -28881,7 +28881,7 @@
         <v>1.83</v>
       </c>
       <c r="AP132">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ132">
         <v>1.47</v>
@@ -31768,7 +31768,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ146">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR146">
         <v>1.52</v>
@@ -33825,7 +33825,7 @@
         <v>1.14</v>
       </c>
       <c r="AP156">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ156">
         <v>1.11</v>
@@ -36918,7 +36918,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ171">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR171">
         <v>1.52</v>
@@ -37742,7 +37742,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ175">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR175">
         <v>1.63</v>
@@ -38357,7 +38357,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ178">
         <v>1.32</v>
@@ -41653,10 +41653,10 @@
         <v>0.89</v>
       </c>
       <c r="AP194">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ194">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR194">
         <v>1.44</v>
@@ -45776,7 +45776,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ214">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR214">
         <v>1.46</v>
@@ -46597,7 +46597,7 @@
         <v>1.2</v>
       </c>
       <c r="AP218">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ218">
         <v>1.42</v>
@@ -51129,7 +51129,7 @@
         <v>0.83</v>
       </c>
       <c r="AP240">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ240">
         <v>0.63</v>
@@ -51747,7 +51747,7 @@
         <v>0.75</v>
       </c>
       <c r="AP243">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ243">
         <v>1</v>
@@ -52162,7 +52162,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ245">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR245">
         <v>1.27</v>
@@ -56488,7 +56488,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ266">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR266">
         <v>1.68</v>
@@ -58751,7 +58751,7 @@
         <v>1</v>
       </c>
       <c r="AP277">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ277">
         <v>0.95</v>
@@ -61020,7 +61020,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ288">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR288">
         <v>1.35</v>
@@ -63077,7 +63077,7 @@
         <v>1.5</v>
       </c>
       <c r="AP298">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ298">
         <v>1.68</v>
@@ -65758,7 +65758,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ311">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR311">
         <v>1.49</v>
@@ -65961,7 +65961,7 @@
         <v>2</v>
       </c>
       <c r="AP312">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ312">
         <v>1.84</v>
@@ -69054,7 +69054,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ327">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR327">
         <v>1.76</v>
@@ -70699,7 +70699,7 @@
         <v>1.19</v>
       </c>
       <c r="AP335">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ335">
         <v>1.05</v>
@@ -70908,7 +70908,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ336">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR336">
         <v>1.2</v>
@@ -75234,7 +75234,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ357">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR357">
         <v>1.1</v>
@@ -75849,7 +75849,7 @@
         <v>2</v>
       </c>
       <c r="AP360">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ360">
         <v>1.89</v>
@@ -78321,7 +78321,7 @@
         <v>1.22</v>
       </c>
       <c r="AP372">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AQ372">
         <v>1.16</v>
@@ -78530,7 +78530,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ373">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR373">
         <v>1.34</v>
@@ -80254,6 +80254,212 @@
       </c>
       <c r="BP381">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="382" spans="1:68">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>7431861</v>
+      </c>
+      <c r="C382" t="s">
+        <v>68</v>
+      </c>
+      <c r="D382" t="s">
+        <v>69</v>
+      </c>
+      <c r="E382" s="2">
+        <v>45428.64583333334</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382" t="s">
+        <v>70</v>
+      </c>
+      <c r="H382" t="s">
+        <v>73</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>1</v>
+      </c>
+      <c r="M382">
+        <v>1</v>
+      </c>
+      <c r="N382">
+        <v>2</v>
+      </c>
+      <c r="O382" t="s">
+        <v>99</v>
+      </c>
+      <c r="P382" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q382">
+        <v>2.54</v>
+      </c>
+      <c r="R382">
+        <v>2.22</v>
+      </c>
+      <c r="S382">
+        <v>4.96</v>
+      </c>
+      <c r="T382">
+        <v>1.44</v>
+      </c>
+      <c r="U382">
+        <v>2.88</v>
+      </c>
+      <c r="V382">
+        <v>3.16</v>
+      </c>
+      <c r="W382">
+        <v>1.38</v>
+      </c>
+      <c r="X382">
+        <v>9</v>
+      </c>
+      <c r="Y382">
+        <v>1.07</v>
+      </c>
+      <c r="Z382">
+        <v>1.93</v>
+      </c>
+      <c r="AA382">
+        <v>3.54</v>
+      </c>
+      <c r="AB382">
+        <v>4.01</v>
+      </c>
+      <c r="AC382">
+        <v>1.04</v>
+      </c>
+      <c r="AD382">
+        <v>8.5</v>
+      </c>
+      <c r="AE382">
+        <v>1.36</v>
+      </c>
+      <c r="AF382">
+        <v>3</v>
+      </c>
+      <c r="AG382">
+        <v>1.95</v>
+      </c>
+      <c r="AH382">
+        <v>1.75</v>
+      </c>
+      <c r="AI382">
+        <v>1.94</v>
+      </c>
+      <c r="AJ382">
+        <v>1.82</v>
+      </c>
+      <c r="AK382">
+        <v>1.21</v>
+      </c>
+      <c r="AL382">
+        <v>1.33</v>
+      </c>
+      <c r="AM382">
+        <v>1.87</v>
+      </c>
+      <c r="AN382">
+        <v>1.08</v>
+      </c>
+      <c r="AO382">
+        <v>1.13</v>
+      </c>
+      <c r="AP382">
+        <v>1.08</v>
+      </c>
+      <c r="AQ382">
+        <v>1.13</v>
+      </c>
+      <c r="AR382">
+        <v>1.42</v>
+      </c>
+      <c r="AS382">
+        <v>1.37</v>
+      </c>
+      <c r="AT382">
+        <v>2.79</v>
+      </c>
+      <c r="AU382">
+        <v>5</v>
+      </c>
+      <c r="AV382">
+        <v>4</v>
+      </c>
+      <c r="AW382">
+        <v>5</v>
+      </c>
+      <c r="AX382">
+        <v>9</v>
+      </c>
+      <c r="AY382">
+        <v>10</v>
+      </c>
+      <c r="AZ382">
+        <v>13</v>
+      </c>
+      <c r="BA382">
+        <v>3</v>
+      </c>
+      <c r="BB382">
+        <v>3</v>
+      </c>
+      <c r="BC382">
+        <v>6</v>
+      </c>
+      <c r="BD382">
+        <v>1.59</v>
+      </c>
+      <c r="BE382">
+        <v>8.5</v>
+      </c>
+      <c r="BF382">
+        <v>2.78</v>
+      </c>
+      <c r="BG382">
+        <v>1.2</v>
+      </c>
+      <c r="BH382">
+        <v>4.3</v>
+      </c>
+      <c r="BI382">
+        <v>1.37</v>
+      </c>
+      <c r="BJ382">
+        <v>2.95</v>
+      </c>
+      <c r="BK382">
+        <v>1.66</v>
+      </c>
+      <c r="BL382">
+        <v>2.14</v>
+      </c>
+      <c r="BM382">
+        <v>2.05</v>
+      </c>
+      <c r="BN382">
+        <v>1.7</v>
+      </c>
+      <c r="BO382">
+        <v>2.8</v>
+      </c>
+      <c r="BP382">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -949,7 +949,7 @@
     <t>['43', '47']</t>
   </si>
   <si>
-    <t>['26', '90+6']</t>
+    <t>['26', '90+6', '105', '120+2']</t>
   </si>
   <si>
     <t>['5', '77']</t>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ17">
         <v>1.1</v>
@@ -6642,7 +6642,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ24">
         <v>0.95</v>
@@ -10147,7 +10147,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ41">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR41">
         <v>1.66</v>
@@ -10556,7 +10556,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ43">
         <v>1.89</v>
@@ -14473,7 +14473,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ62">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR62">
         <v>1.24</v>
@@ -14676,7 +14676,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -20447,7 +20447,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ91">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR91">
         <v>1.23</v>
@@ -20650,7 +20650,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -23949,7 +23949,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ108">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR108">
         <v>1.3</v>
@@ -24770,7 +24770,7 @@
         <v>1.8</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ112">
         <v>1.21</v>
@@ -26009,7 +26009,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ118">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR118">
         <v>2.02</v>
@@ -29923,7 +29923,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ137">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR137">
         <v>1.34</v>
@@ -30126,7 +30126,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ138">
         <v>1.32</v>
@@ -30747,7 +30747,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ141">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR141">
         <v>1.05</v>
@@ -34246,7 +34246,7 @@
         <v>1.57</v>
       </c>
       <c r="AP158">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ158">
         <v>1.05</v>
@@ -34455,7 +34455,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ159">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR159">
         <v>1.31</v>
@@ -38160,10 +38160,10 @@
         <v>1.25</v>
       </c>
       <c r="AP177">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ177">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR177">
         <v>1.28</v>
@@ -41250,7 +41250,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ192">
         <v>0.63</v>
@@ -41665,7 +41665,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ194">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR194">
         <v>1.33</v>
@@ -45370,7 +45370,7 @@
         <v>1.6</v>
       </c>
       <c r="AP212">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ212">
         <v>1.47</v>
@@ -45991,7 +45991,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ215">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR215">
         <v>1.75</v>
@@ -49493,7 +49493,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ232">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR232">
         <v>1.47</v>
@@ -50932,7 +50932,7 @@
         <v>0.83</v>
       </c>
       <c r="AP239">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ239">
         <v>0.95</v>
@@ -52992,7 +52992,7 @@
         <v>1.25</v>
       </c>
       <c r="AP249">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ249">
         <v>1.11</v>
@@ -53201,7 +53201,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ250">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR250">
         <v>1.53</v>
@@ -55673,7 +55673,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ262">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR262">
         <v>1.41</v>
@@ -56082,7 +56082,7 @@
         <v>0.92</v>
       </c>
       <c r="AP264">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ264">
         <v>0.74</v>
@@ -59793,7 +59793,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ282">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR282">
         <v>1.68</v>
@@ -61026,7 +61026,7 @@
         <v>1.29</v>
       </c>
       <c r="AP288">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ288">
         <v>1.42</v>
@@ -65355,7 +65355,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ309">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR309">
         <v>1.41</v>
@@ -67412,7 +67412,7 @@
         <v>1.6</v>
       </c>
       <c r="AP319">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ319">
         <v>1.68</v>
@@ -69887,7 +69887,7 @@
         <v>2.21</v>
       </c>
       <c r="AQ331">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR331">
         <v>1.46</v>
@@ -71326,7 +71326,7 @@
         <v>2.06</v>
       </c>
       <c r="AP338">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ338">
         <v>1.84</v>
@@ -75034,7 +75034,7 @@
         <v>1.65</v>
       </c>
       <c r="AP356">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ356">
         <v>1.47</v>
@@ -76067,7 +76067,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ361">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR361">
         <v>1.33</v>
@@ -78333,7 +78333,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ372">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AR372">
         <v>1.35</v>
@@ -78742,7 +78742,7 @@
         <v>1.61</v>
       </c>
       <c r="AP374">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AQ374">
         <v>1.6</v>
@@ -80712,13 +80712,13 @@
         <v>2</v>
       </c>
       <c r="L384">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M384">
         <v>2</v>
       </c>
       <c r="N384">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O384" t="s">
         <v>311</v>
@@ -80802,10 +80802,10 @@
         <v>1.34</v>
       </c>
       <c r="AP384">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AQ384">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR384">
         <v>1.33</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="466">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1773,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP384"/>
+  <dimension ref="A1:BP385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6439,7 +6439,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ23">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ35">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR35">
         <v>1.24</v>
@@ -11174,7 +11174,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ46">
         <v>1.32</v>
@@ -11383,7 +11383,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR47">
         <v>0.77</v>
@@ -15503,7 +15503,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ67">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR67">
         <v>1.48</v>
@@ -16530,7 +16530,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ72">
         <v>1.11</v>
@@ -21065,7 +21065,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ94">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -21268,7 +21268,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ95">
         <v>0.95</v>
@@ -23122,7 +23122,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ104">
         <v>0.63</v>
@@ -24155,7 +24155,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ109">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR109">
         <v>1.13</v>
@@ -26006,7 +26006,7 @@
         <v>1.75</v>
       </c>
       <c r="AP118">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ118">
         <v>1.1</v>
@@ -28066,7 +28066,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -29099,7 +29099,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ133">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR133">
         <v>1.4</v>
@@ -30950,7 +30950,7 @@
         <v>1.57</v>
       </c>
       <c r="AP142">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ142">
         <v>1.53</v>
@@ -33837,7 +33837,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ156">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR156">
         <v>1.86</v>
@@ -36718,7 +36718,7 @@
         <v>1.38</v>
       </c>
       <c r="AP170">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ170">
         <v>1.05</v>
@@ -40429,7 +40429,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ188">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR188">
         <v>1.18</v>
@@ -40838,7 +40838,7 @@
         <v>2.13</v>
       </c>
       <c r="AP190">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ190">
         <v>1.84</v>
@@ -44755,7 +44755,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ209">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR209">
         <v>1.43</v>
@@ -44958,7 +44958,7 @@
         <v>1.4</v>
       </c>
       <c r="AP210">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ210">
         <v>1.21</v>
@@ -47430,7 +47430,7 @@
         <v>1.09</v>
       </c>
       <c r="AP222">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ222">
         <v>0.74</v>
@@ -48463,7 +48463,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ227">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR227">
         <v>1.68</v>
@@ -49699,7 +49699,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ233">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR233">
         <v>1.11</v>
@@ -52786,7 +52786,7 @@
         <v>1.75</v>
       </c>
       <c r="AP248">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ248">
         <v>1.68</v>
@@ -55055,7 +55055,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ259">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR259">
         <v>1.4</v>
@@ -56494,7 +56494,7 @@
         <v>0.92</v>
       </c>
       <c r="AP266">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ266">
         <v>1.1</v>
@@ -58969,7 +58969,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ278">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR278">
         <v>1.41</v>
@@ -61850,10 +61850,10 @@
         <v>1.5</v>
       </c>
       <c r="AP292">
+        <v>1.48</v>
+      </c>
+      <c r="AQ292">
         <v>1.55</v>
-      </c>
-      <c r="AQ292">
-        <v>1.47</v>
       </c>
       <c r="AR292">
         <v>1.65</v>
@@ -67618,7 +67618,7 @@
         <v>1.6</v>
       </c>
       <c r="AP320">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ320">
         <v>1.6</v>
@@ -67827,7 +67827,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ321">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR321">
         <v>1.48</v>
@@ -70090,7 +70090,7 @@
         <v>2.06</v>
       </c>
       <c r="AP332">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ332">
         <v>1.89</v>
@@ -71535,7 +71535,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ339">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR339">
         <v>1.45</v>
@@ -73386,7 +73386,7 @@
         <v>1.41</v>
       </c>
       <c r="AP348">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ348">
         <v>1.42</v>
@@ -75037,7 +75037,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ356">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR356">
         <v>1.3</v>
@@ -77506,7 +77506,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AP368">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AQ368">
         <v>0.95</v>
@@ -79981,7 +79981,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ380">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AR380">
         <v>1.49</v>
@@ -80596,7 +80596,7 @@
         <v>1.5</v>
       </c>
       <c r="AP383">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AQ383">
         <v>1.46</v>
@@ -80881,6 +80881,212 @@
       </c>
       <c r="BP384">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="385" spans="1:68">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>7435793</v>
+      </c>
+      <c r="C385" t="s">
+        <v>68</v>
+      </c>
+      <c r="D385" t="s">
+        <v>69</v>
+      </c>
+      <c r="E385" s="2">
+        <v>45432.64583333334</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385" t="s">
+        <v>86</v>
+      </c>
+      <c r="H385" t="s">
+        <v>77</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+      <c r="M385">
+        <v>1</v>
+      </c>
+      <c r="N385">
+        <v>1</v>
+      </c>
+      <c r="O385" t="s">
+        <v>90</v>
+      </c>
+      <c r="P385" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q385">
+        <v>2.95</v>
+      </c>
+      <c r="R385">
+        <v>2.2</v>
+      </c>
+      <c r="S385">
+        <v>3.2</v>
+      </c>
+      <c r="T385">
+        <v>1.33</v>
+      </c>
+      <c r="U385">
+        <v>3.05</v>
+      </c>
+      <c r="V385">
+        <v>2.45</v>
+      </c>
+      <c r="W385">
+        <v>1.49</v>
+      </c>
+      <c r="X385">
+        <v>5.45</v>
+      </c>
+      <c r="Y385">
+        <v>1.12</v>
+      </c>
+      <c r="Z385">
+        <v>2.5</v>
+      </c>
+      <c r="AA385">
+        <v>3.5</v>
+      </c>
+      <c r="AB385">
+        <v>2.63</v>
+      </c>
+      <c r="AC385">
+        <v>1.01</v>
+      </c>
+      <c r="AD385">
+        <v>11</v>
+      </c>
+      <c r="AE385">
+        <v>1.22</v>
+      </c>
+      <c r="AF385">
+        <v>4</v>
+      </c>
+      <c r="AG385">
+        <v>1.68</v>
+      </c>
+      <c r="AH385">
+        <v>2.02</v>
+      </c>
+      <c r="AI385">
+        <v>1.55</v>
+      </c>
+      <c r="AJ385">
+        <v>2.35</v>
+      </c>
+      <c r="AK385">
+        <v>1.45</v>
+      </c>
+      <c r="AL385">
+        <v>1.22</v>
+      </c>
+      <c r="AM385">
+        <v>1.55</v>
+      </c>
+      <c r="AN385">
+        <v>1.51</v>
+      </c>
+      <c r="AO385">
+        <v>1.84</v>
+      </c>
+      <c r="AP385">
+        <v>1.48</v>
+      </c>
+      <c r="AQ385">
+        <v>1.87</v>
+      </c>
+      <c r="AR385">
+        <v>1.58</v>
+      </c>
+      <c r="AS385">
+        <v>1.37</v>
+      </c>
+      <c r="AT385">
+        <v>2.95</v>
+      </c>
+      <c r="AU385">
+        <v>4</v>
+      </c>
+      <c r="AV385">
+        <v>3</v>
+      </c>
+      <c r="AW385">
+        <v>5</v>
+      </c>
+      <c r="AX385">
+        <v>4</v>
+      </c>
+      <c r="AY385">
+        <v>9</v>
+      </c>
+      <c r="AZ385">
+        <v>7</v>
+      </c>
+      <c r="BA385">
+        <v>9</v>
+      </c>
+      <c r="BB385">
+        <v>4</v>
+      </c>
+      <c r="BC385">
+        <v>13</v>
+      </c>
+      <c r="BD385">
+        <v>1.91</v>
+      </c>
+      <c r="BE385">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF385">
+        <v>2.19</v>
+      </c>
+      <c r="BG385">
+        <v>1.15</v>
+      </c>
+      <c r="BH385">
+        <v>4.55</v>
+      </c>
+      <c r="BI385">
+        <v>1.3</v>
+      </c>
+      <c r="BJ385">
+        <v>3.08</v>
+      </c>
+      <c r="BK385">
+        <v>1.62</v>
+      </c>
+      <c r="BL385">
+        <v>2.25</v>
+      </c>
+      <c r="BM385">
+        <v>1.99</v>
+      </c>
+      <c r="BN385">
+        <v>1.82</v>
+      </c>
+      <c r="BO385">
+        <v>2.48</v>
+      </c>
+      <c r="BP385">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="471">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -958,6 +958,9 @@
     <t>['4', '43']</t>
   </si>
   <si>
+    <t>['12', '19', '37', '69']</t>
+  </si>
+  <si>
     <t>['5', '77']</t>
   </si>
   <si>
@@ -1785,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP388"/>
+  <dimension ref="A1:BP389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2534,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2662,7 +2665,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q5">
         <v>3.75</v>
@@ -2868,7 +2871,7 @@
         <v>93</v>
       </c>
       <c r="P6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -3692,7 +3695,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q10">
         <v>2.4</v>
@@ -4516,7 +4519,7 @@
         <v>100</v>
       </c>
       <c r="P14" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q14">
         <v>2.75</v>
@@ -4800,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>0.85</v>
@@ -4928,7 +4931,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q16">
         <v>3.25</v>
@@ -5134,7 +5137,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q17">
         <v>2.87</v>
@@ -5340,7 +5343,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q18">
         <v>3.8</v>
@@ -5546,7 +5549,7 @@
         <v>103</v>
       </c>
       <c r="P19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q19">
         <v>3.48</v>
@@ -5958,7 +5961,7 @@
         <v>105</v>
       </c>
       <c r="P21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -6370,7 +6373,7 @@
         <v>106</v>
       </c>
       <c r="P23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q23">
         <v>2.5</v>
@@ -8096,7 +8099,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>1.6</v>
@@ -8224,7 +8227,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8305,7 +8308,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ32">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -9666,7 +9669,7 @@
         <v>117</v>
       </c>
       <c r="P39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -10078,7 +10081,7 @@
         <v>90</v>
       </c>
       <c r="P41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q41">
         <v>3.4</v>
@@ -10284,7 +10287,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q42">
         <v>3.75</v>
@@ -10490,7 +10493,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q43">
         <v>3.1</v>
@@ -10902,7 +10905,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q45">
         <v>2.88</v>
@@ -11932,7 +11935,7 @@
         <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q50">
         <v>2.35</v>
@@ -12010,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>0.95</v>
@@ -12344,7 +12347,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q52">
         <v>2.5</v>
@@ -12550,7 +12553,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12756,7 +12759,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12837,7 +12840,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ54">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR54">
         <v>1.2</v>
@@ -13168,7 +13171,7 @@
         <v>102</v>
       </c>
       <c r="P56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q56">
         <v>3.65</v>
@@ -13374,7 +13377,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -13580,7 +13583,7 @@
         <v>127</v>
       </c>
       <c r="P58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q58">
         <v>2.8</v>
@@ -15228,7 +15231,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15434,7 +15437,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -15640,7 +15643,7 @@
         <v>103</v>
       </c>
       <c r="P68" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q68">
         <v>2.75</v>
@@ -15846,7 +15849,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -16876,7 +16879,7 @@
         <v>139</v>
       </c>
       <c r="P74" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16957,7 +16960,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ74">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -17082,7 +17085,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -17160,7 +17163,7 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75">
         <v>1.89</v>
@@ -17700,7 +17703,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q78">
         <v>2.95</v>
@@ -18193,7 +18196,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ80">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR80">
         <v>0.97</v>
@@ -18318,7 +18321,7 @@
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q81">
         <v>3</v>
@@ -18730,7 +18733,7 @@
         <v>143</v>
       </c>
       <c r="P83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q83">
         <v>2.75</v>
@@ -18936,7 +18939,7 @@
         <v>126</v>
       </c>
       <c r="P84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q84">
         <v>3.2</v>
@@ -19554,7 +19557,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q87">
         <v>2.63</v>
@@ -19760,7 +19763,7 @@
         <v>90</v>
       </c>
       <c r="P88" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19838,7 +19841,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ88">
         <v>1.11</v>
@@ -19966,7 +19969,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q89">
         <v>3.25</v>
@@ -21202,7 +21205,7 @@
         <v>150</v>
       </c>
       <c r="P95" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q95">
         <v>2.63</v>
@@ -21408,7 +21411,7 @@
         <v>90</v>
       </c>
       <c r="P96" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q96">
         <v>3.3</v>
@@ -21614,7 +21617,7 @@
         <v>102</v>
       </c>
       <c r="P97" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q97">
         <v>2.35</v>
@@ -21820,7 +21823,7 @@
         <v>125</v>
       </c>
       <c r="P98" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q98">
         <v>3.3</v>
@@ -22438,7 +22441,7 @@
         <v>90</v>
       </c>
       <c r="P101" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q101">
         <v>3.3</v>
@@ -22725,7 +22728,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ102">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR102">
         <v>1.29</v>
@@ -22850,7 +22853,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23056,7 +23059,7 @@
         <v>153</v>
       </c>
       <c r="P104" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q104">
         <v>3.5</v>
@@ -23262,7 +23265,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q105">
         <v>1.95</v>
@@ -24498,7 +24501,7 @@
         <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24910,7 +24913,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q113">
         <v>2.91</v>
@@ -25606,7 +25609,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116">
         <v>0.95</v>
@@ -26352,7 +26355,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -26433,7 +26436,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ120">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR120">
         <v>1.42</v>
@@ -26558,7 +26561,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26764,7 +26767,7 @@
         <v>90</v>
       </c>
       <c r="P122" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q122">
         <v>3.5</v>
@@ -27176,7 +27179,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q124">
         <v>3.9</v>
@@ -27382,7 +27385,7 @@
         <v>90</v>
       </c>
       <c r="P125" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q125">
         <v>2.7</v>
@@ -27588,7 +27591,7 @@
         <v>90</v>
       </c>
       <c r="P126" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q126">
         <v>2.35</v>
@@ -27794,7 +27797,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -28000,7 +28003,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q128">
         <v>3.9</v>
@@ -28206,7 +28209,7 @@
         <v>168</v>
       </c>
       <c r="P129" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28824,7 +28827,7 @@
         <v>90</v>
       </c>
       <c r="P132" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q132">
         <v>3.1</v>
@@ -29236,7 +29239,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q134">
         <v>2.88</v>
@@ -29520,7 +29523,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ135">
         <v>0.63</v>
@@ -30060,7 +30063,7 @@
         <v>102</v>
       </c>
       <c r="P138" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -30884,7 +30887,7 @@
         <v>125</v>
       </c>
       <c r="P142" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q142">
         <v>2.45</v>
@@ -30965,7 +30968,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ142">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR142">
         <v>1.7</v>
@@ -31708,7 +31711,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31914,7 +31917,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -32532,7 +32535,7 @@
         <v>90</v>
       </c>
       <c r="P150" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q150">
         <v>3.65</v>
@@ -32738,7 +32741,7 @@
         <v>182</v>
       </c>
       <c r="P151" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q151">
         <v>3.4</v>
@@ -33228,7 +33231,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ153">
         <v>1.55</v>
@@ -33562,7 +33565,7 @@
         <v>185</v>
       </c>
       <c r="P155" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q155">
         <v>2.68</v>
@@ -33768,7 +33771,7 @@
         <v>186</v>
       </c>
       <c r="P156" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q156">
         <v>3.2</v>
@@ -34798,7 +34801,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q161">
         <v>2.86</v>
@@ -35210,7 +35213,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q163">
         <v>3.35</v>
@@ -35828,7 +35831,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q166">
         <v>2.3</v>
@@ -36321,7 +36324,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ168">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR168">
         <v>1.37</v>
@@ -36446,7 +36449,7 @@
         <v>197</v>
       </c>
       <c r="P169" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q169">
         <v>2.5</v>
@@ -36858,7 +36861,7 @@
         <v>198</v>
       </c>
       <c r="P171" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q171">
         <v>3.2</v>
@@ -37064,7 +37067,7 @@
         <v>199</v>
       </c>
       <c r="P172" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q172">
         <v>2.2</v>
@@ -37348,7 +37351,7 @@
         <v>1.63</v>
       </c>
       <c r="AP173">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ173">
         <v>1.21</v>
@@ -37476,7 +37479,7 @@
         <v>201</v>
       </c>
       <c r="P174" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q174">
         <v>2.87</v>
@@ -37888,7 +37891,7 @@
         <v>203</v>
       </c>
       <c r="P176" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q176">
         <v>2.2</v>
@@ -38094,7 +38097,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q177">
         <v>2.7</v>
@@ -38712,7 +38715,7 @@
         <v>205</v>
       </c>
       <c r="P180" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q180">
         <v>2.15</v>
@@ -38918,7 +38921,7 @@
         <v>206</v>
       </c>
       <c r="P181" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q181">
         <v>3.2</v>
@@ -39205,7 +39208,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ182">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR182">
         <v>1.22</v>
@@ -39330,7 +39333,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q183">
         <v>3.4</v>
@@ -40154,7 +40157,7 @@
         <v>209</v>
       </c>
       <c r="P187" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q187">
         <v>4.4</v>
@@ -40360,7 +40363,7 @@
         <v>210</v>
       </c>
       <c r="P188" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q188">
         <v>3.4</v>
@@ -40772,7 +40775,7 @@
         <v>212</v>
       </c>
       <c r="P190" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q190">
         <v>3.1</v>
@@ -41184,7 +41187,7 @@
         <v>213</v>
       </c>
       <c r="P192" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41596,7 +41599,7 @@
         <v>215</v>
       </c>
       <c r="P194" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q194">
         <v>2.88</v>
@@ -41802,7 +41805,7 @@
         <v>126</v>
       </c>
       <c r="P195" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q195">
         <v>2.88</v>
@@ -42420,7 +42423,7 @@
         <v>217</v>
       </c>
       <c r="P198" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q198">
         <v>2.75</v>
@@ -42626,7 +42629,7 @@
         <v>218</v>
       </c>
       <c r="P199" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q199">
         <v>2.88</v>
@@ -43116,7 +43119,7 @@
         <v>1</v>
       </c>
       <c r="AP201">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ201">
         <v>1.32</v>
@@ -43244,7 +43247,7 @@
         <v>90</v>
       </c>
       <c r="P202" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q202">
         <v>3.42</v>
@@ -43656,7 +43659,7 @@
         <v>220</v>
       </c>
       <c r="P204" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q204">
         <v>3.3</v>
@@ -44068,7 +44071,7 @@
         <v>221</v>
       </c>
       <c r="P206" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q206">
         <v>3.55</v>
@@ -44355,7 +44358,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ207">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR207">
         <v>1.16</v>
@@ -44480,7 +44483,7 @@
         <v>223</v>
       </c>
       <c r="P208" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q208">
         <v>2.8</v>
@@ -44686,7 +44689,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q209">
         <v>3.3</v>
@@ -44892,7 +44895,7 @@
         <v>224</v>
       </c>
       <c r="P210" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q210">
         <v>3.98</v>
@@ -45098,7 +45101,7 @@
         <v>225</v>
       </c>
       <c r="P211" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q211">
         <v>3.5</v>
@@ -45588,7 +45591,7 @@
         <v>1.6</v>
       </c>
       <c r="AP213">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ213">
         <v>1.1</v>
@@ -46334,7 +46337,7 @@
         <v>90</v>
       </c>
       <c r="P217" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q217">
         <v>2.4</v>
@@ -46952,7 +46955,7 @@
         <v>230</v>
       </c>
       <c r="P220" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q220">
         <v>2.75</v>
@@ -47158,7 +47161,7 @@
         <v>112</v>
       </c>
       <c r="P221" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q221">
         <v>2.75</v>
@@ -48063,7 +48066,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ225">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR225">
         <v>1.46</v>
@@ -48806,7 +48809,7 @@
         <v>90</v>
       </c>
       <c r="P229" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q229">
         <v>3.3</v>
@@ -49012,7 +49015,7 @@
         <v>235</v>
       </c>
       <c r="P230" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q230">
         <v>2.88</v>
@@ -49218,7 +49221,7 @@
         <v>115</v>
       </c>
       <c r="P231" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49630,7 +49633,7 @@
         <v>92</v>
       </c>
       <c r="P233" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q233">
         <v>3.75</v>
@@ -49836,7 +49839,7 @@
         <v>236</v>
       </c>
       <c r="P234" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q234">
         <v>3.75</v>
@@ -50042,7 +50045,7 @@
         <v>90</v>
       </c>
       <c r="P235" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q235">
         <v>4.6</v>
@@ -50454,7 +50457,7 @@
         <v>181</v>
       </c>
       <c r="P237" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q237">
         <v>2</v>
@@ -50532,7 +50535,7 @@
         <v>1.36</v>
       </c>
       <c r="AP237">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ237">
         <v>1.42</v>
@@ -50866,7 +50869,7 @@
         <v>239</v>
       </c>
       <c r="P239" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q239">
         <v>2.76</v>
@@ -51690,7 +51693,7 @@
         <v>164</v>
       </c>
       <c r="P243" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q243">
         <v>3.1</v>
@@ -51896,7 +51899,7 @@
         <v>242</v>
       </c>
       <c r="P244" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q244">
         <v>2.38</v>
@@ -52102,7 +52105,7 @@
         <v>90</v>
       </c>
       <c r="P245" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q245">
         <v>2.75</v>
@@ -52308,7 +52311,7 @@
         <v>243</v>
       </c>
       <c r="P246" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q246">
         <v>3</v>
@@ -52926,7 +52929,7 @@
         <v>246</v>
       </c>
       <c r="P249" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q249">
         <v>2.75</v>
@@ -53338,7 +53341,7 @@
         <v>248</v>
       </c>
       <c r="P251" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53544,7 +53547,7 @@
         <v>249</v>
       </c>
       <c r="P252" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q252">
         <v>3</v>
@@ -53956,7 +53959,7 @@
         <v>250</v>
       </c>
       <c r="P254" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q254">
         <v>2.5</v>
@@ -54034,7 +54037,7 @@
         <v>1.67</v>
       </c>
       <c r="AP254">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ254">
         <v>1.4</v>
@@ -54162,7 +54165,7 @@
         <v>90</v>
       </c>
       <c r="P255" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q255">
         <v>3.1</v>
@@ -54574,7 +54577,7 @@
         <v>226</v>
       </c>
       <c r="P257" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q257">
         <v>2.75</v>
@@ -54655,7 +54658,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ257">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR257">
         <v>1.45</v>
@@ -54780,7 +54783,7 @@
         <v>252</v>
       </c>
       <c r="P258" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q258">
         <v>3</v>
@@ -56016,7 +56019,7 @@
         <v>255</v>
       </c>
       <c r="P264" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q264">
         <v>2.28</v>
@@ -56222,7 +56225,7 @@
         <v>256</v>
       </c>
       <c r="P265" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q265">
         <v>2.23</v>
@@ -56428,7 +56431,7 @@
         <v>152</v>
       </c>
       <c r="P266" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q266">
         <v>3.89</v>
@@ -56634,7 +56637,7 @@
         <v>90</v>
       </c>
       <c r="P267" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q267">
         <v>4.73</v>
@@ -57046,7 +57049,7 @@
         <v>258</v>
       </c>
       <c r="P269" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q269">
         <v>3.1</v>
@@ -57252,7 +57255,7 @@
         <v>90</v>
       </c>
       <c r="P270" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q270">
         <v>2.5</v>
@@ -57664,7 +57667,7 @@
         <v>133</v>
       </c>
       <c r="P272" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q272">
         <v>4</v>
@@ -58076,7 +58079,7 @@
         <v>260</v>
       </c>
       <c r="P274" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q274">
         <v>3.3</v>
@@ -58694,7 +58697,7 @@
         <v>261</v>
       </c>
       <c r="P277" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q277">
         <v>2.88</v>
@@ -58900,7 +58903,7 @@
         <v>90</v>
       </c>
       <c r="P278" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q278">
         <v>3</v>
@@ -58981,7 +58984,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ278">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR278">
         <v>1.44</v>
@@ -59106,7 +59109,7 @@
         <v>133</v>
       </c>
       <c r="P279" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q279">
         <v>3.5</v>
@@ -59930,7 +59933,7 @@
         <v>263</v>
       </c>
       <c r="P283" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q283">
         <v>2.6</v>
@@ -60342,7 +60345,7 @@
         <v>264</v>
       </c>
       <c r="P285" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q285">
         <v>2.98</v>
@@ -60832,7 +60835,7 @@
         <v>1.71</v>
       </c>
       <c r="AP287">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ287">
         <v>1.68</v>
@@ -61166,7 +61169,7 @@
         <v>90</v>
       </c>
       <c r="P289" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q289">
         <v>4</v>
@@ -61372,7 +61375,7 @@
         <v>266</v>
       </c>
       <c r="P290" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q290">
         <v>2.45</v>
@@ -61784,7 +61787,7 @@
         <v>90</v>
       </c>
       <c r="P292" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q292">
         <v>2.88</v>
@@ -61990,7 +61993,7 @@
         <v>126</v>
       </c>
       <c r="P293" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q293">
         <v>3.1</v>
@@ -62071,7 +62074,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ293">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR293">
         <v>1.19</v>
@@ -62402,7 +62405,7 @@
         <v>269</v>
       </c>
       <c r="P295" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q295">
         <v>4.45</v>
@@ -63020,7 +63023,7 @@
         <v>152</v>
       </c>
       <c r="P298" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q298">
         <v>3.33</v>
@@ -63432,7 +63435,7 @@
         <v>90</v>
       </c>
       <c r="P300" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q300">
         <v>3.25</v>
@@ -64050,7 +64053,7 @@
         <v>237</v>
       </c>
       <c r="P303" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q303">
         <v>2.75</v>
@@ -64256,7 +64259,7 @@
         <v>90</v>
       </c>
       <c r="P304" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q304">
         <v>2.3</v>
@@ -64337,7 +64340,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ304">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR304">
         <v>1.68</v>
@@ -64874,7 +64877,7 @@
         <v>274</v>
       </c>
       <c r="P307" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q307">
         <v>3.1</v>
@@ -65286,7 +65289,7 @@
         <v>275</v>
       </c>
       <c r="P309" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q309">
         <v>2.2</v>
@@ -65492,7 +65495,7 @@
         <v>90</v>
       </c>
       <c r="P310" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q310">
         <v>2.1</v>
@@ -65570,7 +65573,7 @@
         <v>1</v>
       </c>
       <c r="AP310">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ310">
         <v>1</v>
@@ -65904,7 +65907,7 @@
         <v>208</v>
       </c>
       <c r="P312" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q312">
         <v>4</v>
@@ -66316,7 +66319,7 @@
         <v>277</v>
       </c>
       <c r="P314" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q314">
         <v>3.26</v>
@@ -67140,7 +67143,7 @@
         <v>157</v>
       </c>
       <c r="P318" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q318">
         <v>3.3</v>
@@ -67346,7 +67349,7 @@
         <v>90</v>
       </c>
       <c r="P319" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q319">
         <v>3.27</v>
@@ -67552,7 +67555,7 @@
         <v>279</v>
       </c>
       <c r="P320" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q320">
         <v>2.6</v>
@@ -67964,7 +67967,7 @@
         <v>139</v>
       </c>
       <c r="P322" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q322">
         <v>2.7</v>
@@ -68045,7 +68048,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ322">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR322">
         <v>1.39</v>
@@ -68170,7 +68173,7 @@
         <v>152</v>
       </c>
       <c r="P323" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q323">
         <v>2.05</v>
@@ -68248,7 +68251,7 @@
         <v>0.93</v>
       </c>
       <c r="AP323">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ323">
         <v>1.1</v>
@@ -68582,7 +68585,7 @@
         <v>280</v>
       </c>
       <c r="P325" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q325">
         <v>2.35</v>
@@ -68994,7 +68997,7 @@
         <v>281</v>
       </c>
       <c r="P327" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q327">
         <v>2.35</v>
@@ -70230,7 +70233,7 @@
         <v>90</v>
       </c>
       <c r="P333" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q333">
         <v>3</v>
@@ -71054,7 +71057,7 @@
         <v>284</v>
       </c>
       <c r="P337" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q337">
         <v>4.4</v>
@@ -71260,7 +71263,7 @@
         <v>121</v>
       </c>
       <c r="P338" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q338">
         <v>4.6</v>
@@ -72290,7 +72293,7 @@
         <v>286</v>
       </c>
       <c r="P343" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q343">
         <v>2.65</v>
@@ -72371,7 +72374,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ343">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR343">
         <v>1.41</v>
@@ -72702,7 +72705,7 @@
         <v>90</v>
       </c>
       <c r="P345" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q345">
         <v>3.3</v>
@@ -73938,7 +73941,7 @@
         <v>292</v>
       </c>
       <c r="P351" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q351">
         <v>2.3</v>
@@ -74222,7 +74225,7 @@
         <v>1.18</v>
       </c>
       <c r="AP352">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ352">
         <v>1.05</v>
@@ -74556,7 +74559,7 @@
         <v>294</v>
       </c>
       <c r="P354" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q354">
         <v>3.5</v>
@@ -74762,7 +74765,7 @@
         <v>295</v>
       </c>
       <c r="P355" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q355">
         <v>2.26</v>
@@ -75174,7 +75177,7 @@
         <v>296</v>
       </c>
       <c r="P357" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q357">
         <v>2.9</v>
@@ -75998,7 +76001,7 @@
         <v>297</v>
       </c>
       <c r="P361" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q361">
         <v>3.24</v>
@@ -76204,7 +76207,7 @@
         <v>298</v>
       </c>
       <c r="P362" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q362">
         <v>3.2</v>
@@ -76616,7 +76619,7 @@
         <v>299</v>
       </c>
       <c r="P364" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q364">
         <v>2.62</v>
@@ -76822,7 +76825,7 @@
         <v>115</v>
       </c>
       <c r="P365" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q365">
         <v>3.29</v>
@@ -77028,7 +77031,7 @@
         <v>300</v>
       </c>
       <c r="P366" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q366">
         <v>2.62</v>
@@ -77521,7 +77524,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ368">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AR368">
         <v>1.21</v>
@@ -77646,7 +77649,7 @@
         <v>301</v>
       </c>
       <c r="P369" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q369">
         <v>1.88</v>
@@ -78470,7 +78473,7 @@
         <v>90</v>
       </c>
       <c r="P373" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q373">
         <v>4.7</v>
@@ -78882,7 +78885,7 @@
         <v>305</v>
       </c>
       <c r="P375" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q375">
         <v>3.35</v>
@@ -79500,7 +79503,7 @@
         <v>307</v>
       </c>
       <c r="P378" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q378">
         <v>2.76</v>
@@ -79912,7 +79915,7 @@
         <v>308</v>
       </c>
       <c r="P380" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q380">
         <v>4.1</v>
@@ -80196,7 +80199,7 @@
         <v>1.06</v>
       </c>
       <c r="AP381">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AQ381">
         <v>1</v>
@@ -80736,7 +80739,7 @@
         <v>311</v>
       </c>
       <c r="P384" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q384">
         <v>2.68</v>
@@ -80814,7 +80817,7 @@
         <v>1.34</v>
       </c>
       <c r="AP384">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ384">
         <v>1.31</v>
@@ -81148,7 +81151,7 @@
         <v>312</v>
       </c>
       <c r="P386" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q386">
         <v>3.75</v>
@@ -81226,10 +81229,10 @@
         <v>1.76</v>
       </c>
       <c r="AP386">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AQ386">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="AR386">
         <v>1.42</v>
@@ -81354,7 +81357,7 @@
         <v>90</v>
       </c>
       <c r="P387" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q387">
         <v>2.8</v>
@@ -81560,7 +81563,7 @@
         <v>313</v>
       </c>
       <c r="P388" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q388">
         <v>2.6</v>
@@ -81717,6 +81720,212 @@
       </c>
       <c r="BP388">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="389" spans="1:68">
+      <c r="A389" s="1">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>7436201</v>
+      </c>
+      <c r="C389" t="s">
+        <v>68</v>
+      </c>
+      <c r="D389" t="s">
+        <v>69</v>
+      </c>
+      <c r="E389" s="2">
+        <v>45437.64583333334</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389" t="s">
+        <v>72</v>
+      </c>
+      <c r="H389" t="s">
+        <v>82</v>
+      </c>
+      <c r="I389">
+        <v>3</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>3</v>
+      </c>
+      <c r="L389">
+        <v>4</v>
+      </c>
+      <c r="M389">
+        <v>1</v>
+      </c>
+      <c r="N389">
+        <v>5</v>
+      </c>
+      <c r="O389" t="s">
+        <v>314</v>
+      </c>
+      <c r="P389" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q389">
+        <v>2.2</v>
+      </c>
+      <c r="R389">
+        <v>2.4</v>
+      </c>
+      <c r="S389">
+        <v>4.75</v>
+      </c>
+      <c r="T389">
+        <v>1.29</v>
+      </c>
+      <c r="U389">
+        <v>3.5</v>
+      </c>
+      <c r="V389">
+        <v>2.38</v>
+      </c>
+      <c r="W389">
+        <v>1.53</v>
+      </c>
+      <c r="X389">
+        <v>5.5</v>
+      </c>
+      <c r="Y389">
+        <v>1.14</v>
+      </c>
+      <c r="Z389">
+        <v>1.62</v>
+      </c>
+      <c r="AA389">
+        <v>4</v>
+      </c>
+      <c r="AB389">
+        <v>4.6</v>
+      </c>
+      <c r="AC389">
+        <v>1.03</v>
+      </c>
+      <c r="AD389">
+        <v>12</v>
+      </c>
+      <c r="AE389">
+        <v>1.17</v>
+      </c>
+      <c r="AF389">
+        <v>4.4</v>
+      </c>
+      <c r="AG389">
+        <v>1.75</v>
+      </c>
+      <c r="AH389">
+        <v>1.96</v>
+      </c>
+      <c r="AI389">
+        <v>1.62</v>
+      </c>
+      <c r="AJ389">
+        <v>2.2</v>
+      </c>
+      <c r="AK389">
+        <v>1.17</v>
+      </c>
+      <c r="AL389">
+        <v>1.22</v>
+      </c>
+      <c r="AM389">
+        <v>2.25</v>
+      </c>
+      <c r="AN389">
+        <v>1.74</v>
+      </c>
+      <c r="AO389">
+        <v>1.6</v>
+      </c>
+      <c r="AP389">
+        <v>1.78</v>
+      </c>
+      <c r="AQ389">
+        <v>1.56</v>
+      </c>
+      <c r="AR389">
+        <v>1.78</v>
+      </c>
+      <c r="AS389">
+        <v>1.1</v>
+      </c>
+      <c r="AT389">
+        <v>2.88</v>
+      </c>
+      <c r="AU389">
+        <v>7</v>
+      </c>
+      <c r="AV389">
+        <v>3</v>
+      </c>
+      <c r="AW389">
+        <v>7</v>
+      </c>
+      <c r="AX389">
+        <v>8</v>
+      </c>
+      <c r="AY389">
+        <v>14</v>
+      </c>
+      <c r="AZ389">
+        <v>11</v>
+      </c>
+      <c r="BA389">
+        <v>5</v>
+      </c>
+      <c r="BB389">
+        <v>6</v>
+      </c>
+      <c r="BC389">
+        <v>11</v>
+      </c>
+      <c r="BD389">
+        <v>1.51</v>
+      </c>
+      <c r="BE389">
+        <v>8.5</v>
+      </c>
+      <c r="BF389">
+        <v>3.16</v>
+      </c>
+      <c r="BG389">
+        <v>1.27</v>
+      </c>
+      <c r="BH389">
+        <v>3.55</v>
+      </c>
+      <c r="BI389">
+        <v>1.5</v>
+      </c>
+      <c r="BJ389">
+        <v>2.48</v>
+      </c>
+      <c r="BK389">
+        <v>1.87</v>
+      </c>
+      <c r="BL389">
+        <v>1.87</v>
+      </c>
+      <c r="BM389">
+        <v>2.45</v>
+      </c>
+      <c r="BN389">
+        <v>1.5</v>
+      </c>
+      <c r="BO389">
+        <v>3.4</v>
+      </c>
+      <c r="BP389">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="471">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1788,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP389"/>
+  <dimension ref="A1:BP390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ4">
         <v>1.45</v>
@@ -4803,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
         <v>0.85</v>
@@ -6454,7 +6454,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ23">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -8099,7 +8099,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ31">
         <v>1.6</v>
@@ -8926,7 +8926,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ35">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR35">
         <v>1.24</v>
@@ -11398,7 +11398,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ47">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR47">
         <v>0.77</v>
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50">
         <v>0.95</v>
@@ -15518,7 +15518,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ67">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR67">
         <v>1.48</v>
@@ -17163,7 +17163,7 @@
         <v>3</v>
       </c>
       <c r="AP75">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
         <v>1.89</v>
@@ -19841,7 +19841,7 @@
         <v>1.25</v>
       </c>
       <c r="AP88">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ88">
         <v>1.11</v>
@@ -21080,7 +21080,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ94">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -24376,7 +24376,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ110">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR110">
         <v>1.13</v>
@@ -25609,7 +25609,7 @@
         <v>1</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ116">
         <v>0.95</v>
@@ -28908,7 +28908,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ132">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR132">
         <v>1.4</v>
@@ -29523,7 +29523,7 @@
         <v>1.33</v>
       </c>
       <c r="AP135">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ135">
         <v>0.63</v>
@@ -33231,10 +33231,10 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ153">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR153">
         <v>1.86</v>
@@ -37351,7 +37351,7 @@
         <v>1.63</v>
       </c>
       <c r="AP173">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ173">
         <v>1.21</v>
@@ -40238,7 +40238,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ187">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR187">
         <v>1.18</v>
@@ -43119,7 +43119,7 @@
         <v>1</v>
       </c>
       <c r="AP201">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ201">
         <v>1.32</v>
@@ -44976,7 +44976,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ210">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR210">
         <v>1.43</v>
@@ -45591,7 +45591,7 @@
         <v>1.6</v>
       </c>
       <c r="AP213">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ213">
         <v>1.1</v>
@@ -47654,7 +47654,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ223">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR223">
         <v>1.68</v>
@@ -50126,7 +50126,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ235">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR235">
         <v>1.11</v>
@@ -50535,7 +50535,7 @@
         <v>1.36</v>
       </c>
       <c r="AP237">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ237">
         <v>1.42</v>
@@ -54037,7 +54037,7 @@
         <v>1.67</v>
       </c>
       <c r="AP254">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ254">
         <v>1.4</v>
@@ -54864,7 +54864,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ258">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR258">
         <v>1.4</v>
@@ -58778,7 +58778,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ277">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR277">
         <v>1.41</v>
@@ -60835,7 +60835,7 @@
         <v>1.71</v>
       </c>
       <c r="AP287">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ287">
         <v>1.68</v>
@@ -61868,7 +61868,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ292">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR292">
         <v>1.65</v>
@@ -65573,7 +65573,7 @@
         <v>1</v>
       </c>
       <c r="AP310">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ310">
         <v>1</v>
@@ -67842,7 +67842,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ321">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR321">
         <v>1.48</v>
@@ -68251,7 +68251,7 @@
         <v>0.93</v>
       </c>
       <c r="AP323">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ323">
         <v>1.1</v>
@@ -71344,7 +71344,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ338">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR338">
         <v>1.45</v>
@@ -74225,7 +74225,7 @@
         <v>1.18</v>
       </c>
       <c r="AP352">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ352">
         <v>1.05</v>
@@ -74640,7 +74640,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ354">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR354">
         <v>1.3</v>
@@ -79584,7 +79584,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ378">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AR378">
         <v>1.49</v>
@@ -80199,7 +80199,7 @@
         <v>1.06</v>
       </c>
       <c r="AP381">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ381">
         <v>1</v>
@@ -81026,7 +81026,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ385">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AR385">
         <v>1.58</v>
@@ -81232,7 +81232,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ386">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AR386">
         <v>1.42</v>
@@ -81641,7 +81641,7 @@
         <v>1.48</v>
       </c>
       <c r="AP388">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AQ388">
         <v>1.44</v>
@@ -81847,7 +81847,7 @@
         <v>1.6</v>
       </c>
       <c r="AP389">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AQ389">
         <v>1.56</v>
@@ -81926,6 +81926,212 @@
       </c>
       <c r="BP389">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="390" spans="1:68">
+      <c r="A390" s="1">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>7440508</v>
+      </c>
+      <c r="C390" t="s">
+        <v>68</v>
+      </c>
+      <c r="D390" t="s">
+        <v>69</v>
+      </c>
+      <c r="E390" s="2">
+        <v>45442.64583333334</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390" t="s">
+        <v>72</v>
+      </c>
+      <c r="H390" t="s">
+        <v>77</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>0</v>
+      </c>
+      <c r="M390">
+        <v>0</v>
+      </c>
+      <c r="N390">
+        <v>0</v>
+      </c>
+      <c r="O390" t="s">
+        <v>90</v>
+      </c>
+      <c r="P390" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q390">
+        <v>2.83</v>
+      </c>
+      <c r="R390">
+        <v>2.26</v>
+      </c>
+      <c r="S390">
+        <v>4.01</v>
+      </c>
+      <c r="T390">
+        <v>1.4</v>
+      </c>
+      <c r="U390">
+        <v>3.06</v>
+      </c>
+      <c r="V390">
+        <v>2.95</v>
+      </c>
+      <c r="W390">
+        <v>1.42</v>
+      </c>
+      <c r="X390">
+        <v>7.3</v>
+      </c>
+      <c r="Y390">
+        <v>1.08</v>
+      </c>
+      <c r="Z390">
+        <v>2.15</v>
+      </c>
+      <c r="AA390">
+        <v>3.1</v>
+      </c>
+      <c r="AB390">
+        <v>3.2</v>
+      </c>
+      <c r="AC390">
+        <v>1.03</v>
+      </c>
+      <c r="AD390">
+        <v>8.5</v>
+      </c>
+      <c r="AE390">
+        <v>1.27</v>
+      </c>
+      <c r="AF390">
+        <v>3.4</v>
+      </c>
+      <c r="AG390">
+        <v>2</v>
+      </c>
+      <c r="AH390">
+        <v>1.73</v>
+      </c>
+      <c r="AI390">
+        <v>1.77</v>
+      </c>
+      <c r="AJ390">
+        <v>2</v>
+      </c>
+      <c r="AK390">
+        <v>1.34</v>
+      </c>
+      <c r="AL390">
+        <v>1.31</v>
+      </c>
+      <c r="AM390">
+        <v>1.7</v>
+      </c>
+      <c r="AN390">
+        <v>1.78</v>
+      </c>
+      <c r="AO390">
+        <v>1.9</v>
+      </c>
+      <c r="AP390">
+        <v>1.76</v>
+      </c>
+      <c r="AQ390">
+        <v>1.88</v>
+      </c>
+      <c r="AR390">
+        <v>1.78</v>
+      </c>
+      <c r="AS390">
+        <v>1.36</v>
+      </c>
+      <c r="AT390">
+        <v>3.14</v>
+      </c>
+      <c r="AU390">
+        <v>16</v>
+      </c>
+      <c r="AV390">
+        <v>6</v>
+      </c>
+      <c r="AW390">
+        <v>0</v>
+      </c>
+      <c r="AX390">
+        <v>6</v>
+      </c>
+      <c r="AY390">
+        <v>16</v>
+      </c>
+      <c r="AZ390">
+        <v>12</v>
+      </c>
+      <c r="BA390">
+        <v>8</v>
+      </c>
+      <c r="BB390">
+        <v>6</v>
+      </c>
+      <c r="BC390">
+        <v>14</v>
+      </c>
+      <c r="BD390">
+        <v>1.69</v>
+      </c>
+      <c r="BE390">
+        <v>8</v>
+      </c>
+      <c r="BF390">
+        <v>2.54</v>
+      </c>
+      <c r="BG390">
+        <v>1.16</v>
+      </c>
+      <c r="BH390">
+        <v>4.3</v>
+      </c>
+      <c r="BI390">
+        <v>1.45</v>
+      </c>
+      <c r="BJ390">
+        <v>2.55</v>
+      </c>
+      <c r="BK390">
+        <v>1.8</v>
+      </c>
+      <c r="BL390">
+        <v>1.9</v>
+      </c>
+      <c r="BM390">
+        <v>2.32</v>
+      </c>
+      <c r="BN390">
+        <v>1.54</v>
+      </c>
+      <c r="BO390">
+        <v>3.1</v>
+      </c>
+      <c r="BP390">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -82068,22 +82068,22 @@
         <v>3.14</v>
       </c>
       <c r="AU390">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AV390">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW390">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX390">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY390">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ390">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA390">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="471">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1788,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP390"/>
+  <dimension ref="A1:BP391"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ9">
         <v>1.68</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ11">
         <v>1.32</v>
@@ -6248,7 +6248,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ22">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR22">
         <v>0.99</v>
@@ -9129,7 +9129,7 @@
         <v>0.5</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ36">
         <v>0.95</v>
@@ -10368,7 +10368,7 @@
         <v>1.05</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR42">
         <v>1.28</v>
@@ -13252,7 +13252,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ56">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR56">
         <v>1.55</v>
@@ -13661,7 +13661,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ58">
         <v>1.4</v>
@@ -18399,7 +18399,7 @@
         <v>3</v>
       </c>
       <c r="AP81">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ81">
         <v>1.89</v>
@@ -19020,7 +19020,7 @@
         <v>2.16</v>
       </c>
       <c r="AQ84">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR84">
         <v>1.23</v>
@@ -21904,7 +21904,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ98">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR98">
         <v>1.34</v>
@@ -23549,7 +23549,7 @@
         <v>1.6</v>
       </c>
       <c r="AP106">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ106">
         <v>1.05</v>
@@ -26433,7 +26433,7 @@
         <v>1.83</v>
       </c>
       <c r="AP120">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ120">
         <v>1.45</v>
@@ -28084,7 +28084,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ128">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR128">
         <v>1.1</v>
@@ -31171,7 +31171,7 @@
         <v>0.75</v>
       </c>
       <c r="AP143">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ143">
         <v>0.95</v>
@@ -31380,7 +31380,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ144">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR144">
         <v>1.32</v>
@@ -35909,7 +35909,7 @@
         <v>1</v>
       </c>
       <c r="AP166">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ166">
         <v>1.11</v>
@@ -36118,7 +36118,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ167">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR167">
         <v>1.2</v>
@@ -37969,7 +37969,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ176">
         <v>0.63</v>
@@ -40856,7 +40856,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ190">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR190">
         <v>1.75</v>
@@ -42707,7 +42707,7 @@
         <v>1.33</v>
       </c>
       <c r="AP199">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ199">
         <v>1.6</v>
@@ -43946,7 +43946,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ205">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR205">
         <v>1.48</v>
@@ -46209,7 +46209,7 @@
         <v>0.8</v>
       </c>
       <c r="AP216">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ216">
         <v>1.1</v>
@@ -48684,7 +48684,7 @@
         <v>0.74</v>
       </c>
       <c r="AQ228">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR228">
         <v>1.54</v>
@@ -51568,7 +51568,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ242">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR242">
         <v>1.45</v>
@@ -53419,7 +53419,7 @@
         <v>1.25</v>
       </c>
       <c r="AP251">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ251">
         <v>1.21</v>
@@ -56512,7 +56512,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ266">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR266">
         <v>1.5</v>
@@ -57539,7 +57539,7 @@
         <v>1.08</v>
       </c>
       <c r="AP271">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ271">
         <v>1</v>
@@ -59602,7 +59602,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ281">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR281">
         <v>1.39</v>
@@ -61453,7 +61453,7 @@
         <v>0.86</v>
       </c>
       <c r="AP290">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ290">
         <v>0.85</v>
@@ -62692,7 +62692,7 @@
         <v>1.37</v>
       </c>
       <c r="AQ296">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR296">
         <v>1.11</v>
@@ -65367,7 +65367,7 @@
         <v>1.4</v>
       </c>
       <c r="AP309">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ309">
         <v>1.42</v>
@@ -65988,7 +65988,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ312">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR312">
         <v>1.36</v>
@@ -69899,7 +69899,7 @@
         <v>1.31</v>
       </c>
       <c r="AP331">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ331">
         <v>1.1</v>
@@ -71962,7 +71962,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ341">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR341">
         <v>1.31</v>
@@ -72165,10 +72165,10 @@
         <v>2</v>
       </c>
       <c r="AP342">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ342">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR342">
         <v>1.49</v>
@@ -76906,7 +76906,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ365">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="AR365">
         <v>1.73</v>
@@ -77727,7 +77727,7 @@
         <v>1.06</v>
       </c>
       <c r="AP369">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AQ369">
         <v>1</v>
@@ -81026,7 +81026,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ385">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR385">
         <v>1.58</v>
@@ -81232,7 +81232,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ386">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AR386">
         <v>1.42</v>
@@ -81641,7 +81641,7 @@
         <v>1.48</v>
       </c>
       <c r="AP388">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AQ388">
         <v>1.44</v>
@@ -81847,7 +81847,7 @@
         <v>1.6</v>
       </c>
       <c r="AP389">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AQ389">
         <v>1.56</v>
@@ -82053,10 +82053,10 @@
         <v>1.9</v>
       </c>
       <c r="AP390">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AQ390">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR390">
         <v>1.78</v>
@@ -82132,6 +82132,212 @@
       </c>
       <c r="BP390">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="391" spans="1:68">
+      <c r="A391" s="1">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>7440509</v>
+      </c>
+      <c r="C391" t="s">
+        <v>68</v>
+      </c>
+      <c r="D391" t="s">
+        <v>69</v>
+      </c>
+      <c r="E391" s="2">
+        <v>45445.64583333334</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+      <c r="G391" t="s">
+        <v>77</v>
+      </c>
+      <c r="H391" t="s">
+        <v>72</v>
+      </c>
+      <c r="I391">
+        <v>1</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>1</v>
+      </c>
+      <c r="L391">
+        <v>1</v>
+      </c>
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391">
+        <v>1</v>
+      </c>
+      <c r="O391" t="s">
+        <v>253</v>
+      </c>
+      <c r="P391" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q391">
+        <v>2.84</v>
+      </c>
+      <c r="R391">
+        <v>2.09</v>
+      </c>
+      <c r="S391">
+        <v>4.01</v>
+      </c>
+      <c r="T391">
+        <v>1.43</v>
+      </c>
+      <c r="U391">
+        <v>2.73</v>
+      </c>
+      <c r="V391">
+        <v>3.02</v>
+      </c>
+      <c r="W391">
+        <v>1.36</v>
+      </c>
+      <c r="X391">
+        <v>7.9</v>
+      </c>
+      <c r="Y391">
+        <v>1.07</v>
+      </c>
+      <c r="Z391">
+        <v>2.21</v>
+      </c>
+      <c r="AA391">
+        <v>3.36</v>
+      </c>
+      <c r="AB391">
+        <v>3.3</v>
+      </c>
+      <c r="AC391">
+        <v>1.03</v>
+      </c>
+      <c r="AD391">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE391">
+        <v>1.32</v>
+      </c>
+      <c r="AF391">
+        <v>3.06</v>
+      </c>
+      <c r="AG391">
+        <v>2.07</v>
+      </c>
+      <c r="AH391">
+        <v>1.75</v>
+      </c>
+      <c r="AI391">
+        <v>1.84</v>
+      </c>
+      <c r="AJ391">
+        <v>1.92</v>
+      </c>
+      <c r="AK391">
+        <v>1.25</v>
+      </c>
+      <c r="AL391">
+        <v>1.25</v>
+      </c>
+      <c r="AM391">
+        <v>1.65</v>
+      </c>
+      <c r="AN391">
+        <v>1.88</v>
+      </c>
+      <c r="AO391">
+        <v>1.76</v>
+      </c>
+      <c r="AP391">
+        <v>1.9</v>
+      </c>
+      <c r="AQ391">
+        <v>1.71</v>
+      </c>
+      <c r="AR391">
+        <v>1.5</v>
+      </c>
+      <c r="AS391">
+        <v>1.58</v>
+      </c>
+      <c r="AT391">
+        <v>3.08</v>
+      </c>
+      <c r="AU391">
+        <v>4</v>
+      </c>
+      <c r="AV391">
+        <v>8</v>
+      </c>
+      <c r="AW391">
+        <v>2</v>
+      </c>
+      <c r="AX391">
+        <v>6</v>
+      </c>
+      <c r="AY391">
+        <v>6</v>
+      </c>
+      <c r="AZ391">
+        <v>14</v>
+      </c>
+      <c r="BA391">
+        <v>4</v>
+      </c>
+      <c r="BB391">
+        <v>5</v>
+      </c>
+      <c r="BC391">
+        <v>9</v>
+      </c>
+      <c r="BD391">
+        <v>1.96</v>
+      </c>
+      <c r="BE391">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF391">
+        <v>2.13</v>
+      </c>
+      <c r="BG391">
+        <v>1.18</v>
+      </c>
+      <c r="BH391">
+        <v>4.1</v>
+      </c>
+      <c r="BI391">
+        <v>1.36</v>
+      </c>
+      <c r="BJ391">
+        <v>2.79</v>
+      </c>
+      <c r="BK391">
+        <v>1.66</v>
+      </c>
+      <c r="BL391">
+        <v>2.15</v>
+      </c>
+      <c r="BM391">
+        <v>2.06</v>
+      </c>
+      <c r="BN391">
+        <v>1.72</v>
+      </c>
+      <c r="BO391">
+        <v>2.73</v>
+      </c>
+      <c r="BP391">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20232024.xlsx
@@ -80411,13 +80411,13 @@
         <v>1.1</v>
       </c>
       <c r="AR382">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AS382">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AT382">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="AU382">
         <v>5</v>
@@ -80617,13 +80617,13 @@
         <v>1.46</v>
       </c>
       <c r="AR383">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="AS383">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT383">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="AU383">
         <v>7</v>
@@ -80823,13 +80823,13 @@
         <v>1.31</v>
       </c>
       <c r="AR384">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AS384">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AT384">
-        <v>2.59</v>
+        <v>2.49</v>
       </c>
       <c r="AU384">
         <v>12</v>
@@ -81029,13 +81029,13 @@
         <v>1.9</v>
       </c>
       <c r="AR385">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="AS385">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AT385">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="AU385">
         <v>3</v>
@@ -81235,13 +81235,13 @@
         <v>1.71</v>
       </c>
       <c r="AR386">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="AS386">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AT386">
-        <v>3.02</v>
+        <v>2.95</v>
       </c>
       <c r="AU386">
         <v>6</v>
@@ -81441,13 +81441,13 @@
         <v>1.13</v>
       </c>
       <c r="AR387">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AS387">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AT387">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="AU387">
         <v>4</v>
@@ -81647,13 +81647,13 @@
         <v>1.44</v>
       </c>
       <c r="AR388">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AS388">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AT388">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="AU388">
         <v>9</v>
@@ -81853,13 +81853,13 @@
         <v>1.56</v>
       </c>
       <c r="AR389">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AS389">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="AT389">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="AU389">
         <v>7</v>
@@ -82059,13 +82059,13 @@
         <v>1.9</v>
       </c>
       <c r="AR390">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AS390">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AT390">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="AU390">
         <v>12</v>
@@ -82265,13 +82265,13 @@
         <v>1.71</v>
       </c>
       <c r="AR391">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AS391">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="AT391">
-        <v>3.08</v>
+        <v>3.13</v>
       </c>
       <c r="AU391">
         <v>4</v>
